--- a/Financial_Model_3_Statement.xlsx
+++ b/Financial_Model_3_Statement.xlsx
@@ -6310,51 +6310,51 @@
         </is>
       </c>
       <c r="B16" s="13">
-        <f>SUM(B6:B16)</f>
+        <f>B6+B8+SUM(B10:B15)</f>
         <v/>
       </c>
       <c r="C16" s="13">
-        <f>SUM(C6:C16)</f>
+        <f>C6+C8+SUM(C10:C15)</f>
         <v/>
       </c>
       <c r="D16" s="13">
-        <f>SUM(D6:D16)</f>
+        <f>D6+D8+SUM(D10:D15)</f>
         <v/>
       </c>
       <c r="E16" s="13">
-        <f>SUM(E6:E16)</f>
+        <f>E6+E8+SUM(E10:E15)</f>
         <v/>
       </c>
       <c r="F16" s="13">
-        <f>SUM(F6:F16)</f>
+        <f>F6+F8+SUM(F10:F15)</f>
         <v/>
       </c>
       <c r="G16" s="13">
-        <f>SUM(G6:G16)</f>
+        <f>G6+G8+SUM(G10:G15)</f>
         <v/>
       </c>
       <c r="H16" s="13">
-        <f>SUM(H6:H16)</f>
+        <f>H6+H8+SUM(H10:H15)</f>
         <v/>
       </c>
       <c r="I16" s="13">
-        <f>SUM(I6:I16)</f>
+        <f>I6+I8+SUM(I10:I15)</f>
         <v/>
       </c>
       <c r="J16" s="13">
-        <f>SUM(J6:J16)</f>
+        <f>J6+J8+SUM(J10:J15)</f>
         <v/>
       </c>
       <c r="K16" s="13">
-        <f>SUM(K6:K16)</f>
+        <f>K6+K8+SUM(K10:K15)</f>
         <v/>
       </c>
       <c r="L16" s="13">
-        <f>SUM(L6:L16)</f>
+        <f>L6+L8+SUM(L10:L15)</f>
         <v/>
       </c>
       <c r="M16" s="13">
-        <f>SUM(M6:M16)</f>
+        <f>M6+M8+SUM(M10:M15)</f>
         <v/>
       </c>
     </row>
@@ -6642,51 +6642,51 @@
         </is>
       </c>
       <c r="B27" s="15">
-        <f>B17+B21+B26</f>
+        <f>B16+B20+B25</f>
         <v/>
       </c>
       <c r="C27" s="15">
-        <f>C17+C21+C26</f>
+        <f>C16+C20+C25</f>
         <v/>
       </c>
       <c r="D27" s="15">
-        <f>D17+D21+D26</f>
+        <f>D16+D20+D25</f>
         <v/>
       </c>
       <c r="E27" s="15">
-        <f>E17+E21+E26</f>
+        <f>E16+E20+E25</f>
         <v/>
       </c>
       <c r="F27" s="15">
-        <f>F17+F21+F26</f>
+        <f>F16+F20+F25</f>
         <v/>
       </c>
       <c r="G27" s="15">
-        <f>G17+G21+G26</f>
+        <f>G16+G20+G25</f>
         <v/>
       </c>
       <c r="H27" s="15">
-        <f>H17+H21+H26</f>
+        <f>H16+H20+H25</f>
         <v/>
       </c>
       <c r="I27" s="15">
-        <f>I17+I21+I26</f>
+        <f>I16+I20+I25</f>
         <v/>
       </c>
       <c r="J27" s="15">
-        <f>J17+J21+J26</f>
+        <f>J16+J20+J25</f>
         <v/>
       </c>
       <c r="K27" s="15">
-        <f>K17+K21+K26</f>
+        <f>K16+K20+K25</f>
         <v/>
       </c>
       <c r="L27" s="15">
-        <f>L17+L21+L26</f>
+        <f>L16+L20+L25</f>
         <v/>
       </c>
       <c r="M27" s="15">
-        <f>M17+M21+M26</f>
+        <f>M16+M20+M25</f>
         <v/>
       </c>
     </row>

--- a/Financial_Model_3_Statement.xlsx
+++ b/Financial_Model_3_Statement.xlsx
@@ -3439,51 +3439,51 @@
         </is>
       </c>
       <c r="B74" s="12">
-        <f>'Income Statement'!B20</f>
+        <f>'Income Statement'!B19</f>
         <v/>
       </c>
       <c r="C74" s="12">
-        <f>'Income Statement'!C20</f>
+        <f>'Income Statement'!C19</f>
         <v/>
       </c>
       <c r="D74" s="12">
-        <f>'Income Statement'!D20</f>
+        <f>'Income Statement'!D19</f>
         <v/>
       </c>
       <c r="E74" s="12">
-        <f>'Income Statement'!E20</f>
+        <f>'Income Statement'!E19</f>
         <v/>
       </c>
       <c r="F74" s="12">
-        <f>'Income Statement'!F20</f>
+        <f>'Income Statement'!F19</f>
         <v/>
       </c>
       <c r="G74" s="12">
-        <f>'Income Statement'!G20</f>
+        <f>'Income Statement'!G19</f>
         <v/>
       </c>
       <c r="H74" s="12">
-        <f>'Income Statement'!H20</f>
+        <f>'Income Statement'!H19</f>
         <v/>
       </c>
       <c r="I74" s="12">
-        <f>'Income Statement'!I20</f>
+        <f>'Income Statement'!I19</f>
         <v/>
       </c>
       <c r="J74" s="12">
-        <f>'Income Statement'!J20</f>
+        <f>'Income Statement'!J19</f>
         <v/>
       </c>
       <c r="K74" s="12">
-        <f>'Income Statement'!K20</f>
+        <f>'Income Statement'!K19</f>
         <v/>
       </c>
       <c r="L74" s="12">
-        <f>'Income Statement'!L20</f>
+        <f>'Income Statement'!L19</f>
         <v/>
       </c>
       <c r="M74" s="12">
-        <f>'Income Statement'!M20</f>
+        <f>'Income Statement'!M19</f>
         <v/>
       </c>
     </row>
@@ -5856,51 +5856,51 @@
         </is>
       </c>
       <c r="B6" s="12">
-        <f>'Income Statement'!B20</f>
+        <f>'Income Statement'!B19</f>
         <v/>
       </c>
       <c r="C6" s="12">
-        <f>'Income Statement'!C20</f>
+        <f>'Income Statement'!C19</f>
         <v/>
       </c>
       <c r="D6" s="12">
-        <f>'Income Statement'!D20</f>
+        <f>'Income Statement'!D19</f>
         <v/>
       </c>
       <c r="E6" s="12">
-        <f>'Income Statement'!E20</f>
+        <f>'Income Statement'!E19</f>
         <v/>
       </c>
       <c r="F6" s="12">
-        <f>'Income Statement'!F20</f>
+        <f>'Income Statement'!F19</f>
         <v/>
       </c>
       <c r="G6" s="12">
-        <f>'Income Statement'!G20</f>
+        <f>'Income Statement'!G19</f>
         <v/>
       </c>
       <c r="H6" s="12">
-        <f>'Income Statement'!H20</f>
+        <f>'Income Statement'!H19</f>
         <v/>
       </c>
       <c r="I6" s="12">
-        <f>'Income Statement'!I20</f>
+        <f>'Income Statement'!I19</f>
         <v/>
       </c>
       <c r="J6" s="12">
-        <f>'Income Statement'!J20</f>
+        <f>'Income Statement'!J19</f>
         <v/>
       </c>
       <c r="K6" s="12">
-        <f>'Income Statement'!K20</f>
+        <f>'Income Statement'!K19</f>
         <v/>
       </c>
       <c r="L6" s="12">
-        <f>'Income Statement'!L20</f>
+        <f>'Income Statement'!L19</f>
         <v/>
       </c>
       <c r="M6" s="12">
-        <f>'Income Statement'!M20</f>
+        <f>'Income Statement'!M19</f>
         <v/>
       </c>
     </row>

--- a/Financial_Model_3_Statement.xlsx
+++ b/Financial_Model_3_Statement.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -130,7 +130,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -510,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,60 +656,6 @@
         <v>171033.9358116314</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Revenue Growth %</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <f>B6/B6-1</f>
-        <v/>
-      </c>
-      <c r="D7" s="6">
-        <f>D6/C6-1</f>
-        <v/>
-      </c>
-      <c r="E7" s="6">
-        <f>E6/D6-1</f>
-        <v/>
-      </c>
-      <c r="F7" s="6">
-        <f>F6/E6-1</f>
-        <v/>
-      </c>
-      <c r="G7" s="6">
-        <f>G6/F6-1</f>
-        <v/>
-      </c>
-      <c r="H7" s="6">
-        <f>H6/G6-1</f>
-        <v/>
-      </c>
-      <c r="I7" s="6">
-        <f>I6/H6-1</f>
-        <v/>
-      </c>
-      <c r="J7" s="6">
-        <f>J6/I6-1</f>
-        <v/>
-      </c>
-      <c r="K7" s="6">
-        <f>K6/J6-1</f>
-        <v/>
-      </c>
-      <c r="L7" s="6">
-        <f>L6/K6-1</f>
-        <v/>
-      </c>
-      <c r="M7" s="6">
-        <f>M6/L6-1</f>
-        <v/>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
@@ -817,40 +762,40 @@
           <t>AR Days</t>
         </is>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" t="n">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" t="n">
         <v>30</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" t="n">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" t="n">
         <v>30</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" t="n">
         <v>30</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" t="n">
         <v>30</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" t="n">
         <v>30</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" t="n">
         <v>30</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" t="n">
         <v>30</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" t="n">
         <v>30</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" t="n">
         <v>30</v>
       </c>
     </row>
@@ -860,40 +805,40 @@
           <t>Inventory Days</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" t="n">
         <v>45</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" t="n">
         <v>45</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" t="n">
         <v>45</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" t="n">
         <v>45</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" t="n">
         <v>45</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" t="n">
         <v>45</v>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" t="n">
         <v>45</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" t="n">
         <v>45</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" t="n">
         <v>45</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" t="n">
         <v>45</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" t="n">
         <v>45</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="M15" t="n">
         <v>45</v>
       </c>
     </row>
@@ -903,40 +848,40 @@
           <t>AP Days</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" t="n">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" t="n">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" t="n">
         <v>30</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" t="n">
         <v>30</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" t="n">
         <v>30</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" t="n">
         <v>30</v>
       </c>
-      <c r="H16" s="7" t="n">
+      <c r="H16" t="n">
         <v>30</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" t="n">
         <v>30</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" t="n">
         <v>30</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="K16" t="n">
         <v>30</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" t="n">
         <v>30</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="M16" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1033,100 +978,14 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Monthly Capex</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Depreciation Rate (annual)</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Asset Disposals</t>
+          <t>Monthly Capex</t>
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>0</v>
@@ -1144,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
@@ -1162,283 +1021,256 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Depreciation Rate (annual)</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>DEBT &amp; FINANCING</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Debt Drawdowns</t>
         </is>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B30" s="5" t="n">
         <v>200000</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Debt Repayments</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G27" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H27" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I27" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Interest Rate (annual)</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M28" s="6" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>TAX</t>
-        </is>
+      <c r="C30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tax Rate</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M31" s="6" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>STARTING BALANCES (Month 0)</t>
-        </is>
+          <t>Debt Repayments</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L31" s="5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M31" s="5" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Interest Rate (annual)</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L32" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M32" s="6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Opening Cash</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Opening AR</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>0</v>
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>TAX</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Opening Inventory</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Opening Prepayments</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>0</v>
+          <t>Tax Rate</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L36" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="6" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Opening Fixed Assets (Gross)</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Opening Accumulated Depreciation</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Opening AP</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>0</v>
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>STARTING BALANCES (Month 0)</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Opening Accrued Expenses</t>
+          <t>Opening Cash</t>
         </is>
       </c>
       <c r="B41" s="5" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Opening Deferred Revenue</t>
+          <t>Opening AR</t>
         </is>
       </c>
       <c r="B42" s="5" t="n">
@@ -1448,7 +1280,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Opening Debt</t>
+          <t>Opening Inventory</t>
         </is>
       </c>
       <c r="B43" s="5" t="n">
@@ -1458,20 +1290,90 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Opening Share Capital</t>
+          <t>Opening Prepayments</t>
         </is>
       </c>
       <c r="B44" s="5" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Opening Fixed Assets (Gross)</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Opening Accumulated Depreciation</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Opening AP</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Opening Accrued Expenses</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Opening Deferred Revenue</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Opening Debt</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Opening Share Capital</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>Opening Retained Earnings</t>
         </is>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B52" s="5" t="n">
         <v>30000</v>
       </c>
     </row>
@@ -1486,7 +1388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1584,7 +1486,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>ACCOUNTS RECEIVABLE CONTROL</t>
         </is>
@@ -1761,1474 +1663,1236 @@
           <t>Closing AR</t>
         </is>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f>B6+B7-B8</f>
         <v/>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <f>C6+C7-C8</f>
         <v/>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f>D6+D7-D8</f>
         <v/>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f>E6+E7-E8</f>
         <v/>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f>F6+F7-F8</f>
         <v/>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f>G6+G7-G8</f>
         <v/>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f>H6+H7-H8</f>
         <v/>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f>I6+I7-I8</f>
         <v/>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f>J6+J7-J8</f>
         <v/>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f>K6+K7-K8</f>
         <v/>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f>L6+L7-L8</f>
         <v/>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <f>M6+M7-M8</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>INVENTORY CONTROL</t>
         </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Opening Inventory</t>
-        </is>
-      </c>
-      <c r="B12" s="5">
-        <f>Inputs!$B$43</f>
-        <v/>
-      </c>
-      <c r="C12" s="5">
-        <f>B15</f>
-        <v/>
-      </c>
-      <c r="D12" s="5">
-        <f>C15</f>
-        <v/>
-      </c>
-      <c r="E12" s="5">
-        <f>D15</f>
-        <v/>
-      </c>
-      <c r="F12" s="5">
-        <f>E15</f>
-        <v/>
-      </c>
-      <c r="G12" s="5">
-        <f>F15</f>
-        <v/>
-      </c>
-      <c r="H12" s="5">
-        <f>G15</f>
-        <v/>
-      </c>
-      <c r="I12" s="5">
-        <f>H15</f>
-        <v/>
-      </c>
-      <c r="J12" s="5">
-        <f>I15</f>
-        <v/>
-      </c>
-      <c r="K12" s="5">
-        <f>J15</f>
-        <v/>
-      </c>
-      <c r="L12" s="5">
-        <f>K15</f>
-        <v/>
-      </c>
-      <c r="M12" s="5">
-        <f>L15</f>
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Purchases</t>
+          <t>Opening Inventory</t>
         </is>
       </c>
       <c r="B13" s="5">
-        <f>Inputs!$B$6*Inputs!$B$11+50000</f>
+        <f>Inputs!$B$43</f>
         <v/>
       </c>
       <c r="C13" s="5">
-        <f>Inputs!$C$6*Inputs!$C$11</f>
+        <f>B16</f>
         <v/>
       </c>
       <c r="D13" s="5">
-        <f>Inputs!$D$6*Inputs!$D$11</f>
+        <f>C16</f>
         <v/>
       </c>
       <c r="E13" s="5">
-        <f>Inputs!$E$6*Inputs!$E$11</f>
+        <f>D16</f>
         <v/>
       </c>
       <c r="F13" s="5">
-        <f>Inputs!$F$6*Inputs!$F$11</f>
+        <f>E16</f>
         <v/>
       </c>
       <c r="G13" s="5">
-        <f>Inputs!$G$6*Inputs!$G$11</f>
+        <f>F16</f>
         <v/>
       </c>
       <c r="H13" s="5">
-        <f>Inputs!$H$6*Inputs!$H$11</f>
+        <f>G16</f>
         <v/>
       </c>
       <c r="I13" s="5">
-        <f>Inputs!$I$6*Inputs!$I$11</f>
+        <f>H16</f>
         <v/>
       </c>
       <c r="J13" s="5">
-        <f>Inputs!$J$6*Inputs!$J$11</f>
+        <f>I16</f>
         <v/>
       </c>
       <c r="K13" s="5">
-        <f>Inputs!$K$6*Inputs!$K$11</f>
+        <f>J16</f>
         <v/>
       </c>
       <c r="L13" s="5">
-        <f>Inputs!$L$6*Inputs!$L$11</f>
+        <f>K16</f>
         <v/>
       </c>
       <c r="M13" s="5">
-        <f>Inputs!$M$6*Inputs!$M$11</f>
+        <f>L16</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>COGS Withdrawal</t>
+          <t>Purchases</t>
         </is>
       </c>
       <c r="B14" s="5">
-        <f>Inputs!$B$6*Inputs!$B$11</f>
+        <f>Inputs!$B$6*Inputs!$B$10+50000</f>
         <v/>
       </c>
       <c r="C14" s="5">
-        <f>Inputs!$C$6*Inputs!$C$11</f>
+        <f>Inputs!$C$6*Inputs!$C$10</f>
         <v/>
       </c>
       <c r="D14" s="5">
-        <f>Inputs!$D$6*Inputs!$D$11</f>
+        <f>Inputs!$D$6*Inputs!$D$10</f>
         <v/>
       </c>
       <c r="E14" s="5">
-        <f>Inputs!$E$6*Inputs!$E$11</f>
+        <f>Inputs!$E$6*Inputs!$E$10</f>
         <v/>
       </c>
       <c r="F14" s="5">
-        <f>Inputs!$F$6*Inputs!$F$11</f>
+        <f>Inputs!$F$6*Inputs!$F$10</f>
         <v/>
       </c>
       <c r="G14" s="5">
-        <f>Inputs!$G$6*Inputs!$G$11</f>
+        <f>Inputs!$G$6*Inputs!$G$10</f>
         <v/>
       </c>
       <c r="H14" s="5">
-        <f>Inputs!$H$6*Inputs!$H$11</f>
+        <f>Inputs!$H$6*Inputs!$H$10</f>
         <v/>
       </c>
       <c r="I14" s="5">
-        <f>Inputs!$I$6*Inputs!$I$11</f>
+        <f>Inputs!$I$6*Inputs!$I$10</f>
         <v/>
       </c>
       <c r="J14" s="5">
-        <f>Inputs!$J$6*Inputs!$J$11</f>
+        <f>Inputs!$J$6*Inputs!$J$10</f>
         <v/>
       </c>
       <c r="K14" s="5">
-        <f>Inputs!$K$6*Inputs!$K$11</f>
+        <f>Inputs!$K$6*Inputs!$K$10</f>
         <v/>
       </c>
       <c r="L14" s="5">
-        <f>Inputs!$L$6*Inputs!$L$11</f>
+        <f>Inputs!$L$6*Inputs!$L$10</f>
         <v/>
       </c>
       <c r="M14" s="5">
-        <f>Inputs!$M$6*Inputs!$M$11</f>
+        <f>Inputs!$M$6*Inputs!$M$10</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>COGS Withdrawal</t>
+        </is>
+      </c>
+      <c r="B15" s="5">
+        <f>Inputs!$B$6*Inputs!$B$10</f>
+        <v/>
+      </c>
+      <c r="C15" s="5">
+        <f>Inputs!$C$6*Inputs!$C$10</f>
+        <v/>
+      </c>
+      <c r="D15" s="5">
+        <f>Inputs!$D$6*Inputs!$D$10</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
+        <f>Inputs!$E$6*Inputs!$E$10</f>
+        <v/>
+      </c>
+      <c r="F15" s="5">
+        <f>Inputs!$F$6*Inputs!$F$10</f>
+        <v/>
+      </c>
+      <c r="G15" s="5">
+        <f>Inputs!$G$6*Inputs!$G$10</f>
+        <v/>
+      </c>
+      <c r="H15" s="5">
+        <f>Inputs!$H$6*Inputs!$H$10</f>
+        <v/>
+      </c>
+      <c r="I15" s="5">
+        <f>Inputs!$I$6*Inputs!$I$10</f>
+        <v/>
+      </c>
+      <c r="J15" s="5">
+        <f>Inputs!$J$6*Inputs!$J$10</f>
+        <v/>
+      </c>
+      <c r="K15" s="5">
+        <f>Inputs!$K$6*Inputs!$K$10</f>
+        <v/>
+      </c>
+      <c r="L15" s="5">
+        <f>Inputs!$L$6*Inputs!$L$10</f>
+        <v/>
+      </c>
+      <c r="M15" s="5">
+        <f>Inputs!$M$6*Inputs!$M$10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Closing Inventory</t>
         </is>
       </c>
-      <c r="B15" s="10">
-        <f>B12+B13-B14</f>
-        <v/>
-      </c>
-      <c r="C15" s="10">
-        <f>C12+C13-C14</f>
-        <v/>
-      </c>
-      <c r="D15" s="10">
-        <f>D12+D13-D14</f>
-        <v/>
-      </c>
-      <c r="E15" s="10">
-        <f>E12+E13-E14</f>
-        <v/>
-      </c>
-      <c r="F15" s="10">
-        <f>F12+F13-F14</f>
-        <v/>
-      </c>
-      <c r="G15" s="10">
-        <f>G12+G13-G14</f>
-        <v/>
-      </c>
-      <c r="H15" s="10">
-        <f>H12+H13-H14</f>
-        <v/>
-      </c>
-      <c r="I15" s="10">
-        <f>I12+I13-I14</f>
-        <v/>
-      </c>
-      <c r="J15" s="10">
-        <f>J12+J13-J14</f>
-        <v/>
-      </c>
-      <c r="K15" s="10">
-        <f>K12+K13-K14</f>
-        <v/>
-      </c>
-      <c r="L15" s="10">
-        <f>L12+L13-L14</f>
-        <v/>
-      </c>
-      <c r="M15" s="10">
-        <f>M12+M13-M14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="B16" s="9">
+        <f>B13+B14-B15</f>
+        <v/>
+      </c>
+      <c r="C16" s="9">
+        <f>C13+C14-C15</f>
+        <v/>
+      </c>
+      <c r="D16" s="9">
+        <f>D13+D14-D15</f>
+        <v/>
+      </c>
+      <c r="E16" s="9">
+        <f>E13+E14-E15</f>
+        <v/>
+      </c>
+      <c r="F16" s="9">
+        <f>F13+F14-F15</f>
+        <v/>
+      </c>
+      <c r="G16" s="9">
+        <f>G13+G14-G15</f>
+        <v/>
+      </c>
+      <c r="H16" s="9">
+        <f>H13+H14-H15</f>
+        <v/>
+      </c>
+      <c r="I16" s="9">
+        <f>I13+I14-I15</f>
+        <v/>
+      </c>
+      <c r="J16" s="9">
+        <f>J13+J14-J15</f>
+        <v/>
+      </c>
+      <c r="K16" s="9">
+        <f>K13+K14-K15</f>
+        <v/>
+      </c>
+      <c r="L16" s="9">
+        <f>L13+L14-L15</f>
+        <v/>
+      </c>
+      <c r="M16" s="9">
+        <f>M13+M14-M15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
         <is>
           <t>PREPAYMENTS CONTROL</t>
         </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Opening Prepayments</t>
-        </is>
-      </c>
-      <c r="B18" s="5">
-        <f>Inputs!$B$44</f>
-        <v/>
-      </c>
-      <c r="C18" s="5">
-        <f>B21</f>
-        <v/>
-      </c>
-      <c r="D18" s="5">
-        <f>C21</f>
-        <v/>
-      </c>
-      <c r="E18" s="5">
-        <f>D21</f>
-        <v/>
-      </c>
-      <c r="F18" s="5">
-        <f>E21</f>
-        <v/>
-      </c>
-      <c r="G18" s="5">
-        <f>F21</f>
-        <v/>
-      </c>
-      <c r="H18" s="5">
-        <f>G21</f>
-        <v/>
-      </c>
-      <c r="I18" s="5">
-        <f>H21</f>
-        <v/>
-      </c>
-      <c r="J18" s="5">
-        <f>I21</f>
-        <v/>
-      </c>
-      <c r="K18" s="5">
-        <f>J21</f>
-        <v/>
-      </c>
-      <c r="L18" s="5">
-        <f>K21</f>
-        <v/>
-      </c>
-      <c r="M18" s="5">
-        <f>L21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>New Prepayments (Cash Paid)</t>
-        </is>
-      </c>
-      <c r="B19" s="5">
-        <f>Inputs!$B$17</f>
-        <v/>
-      </c>
-      <c r="C19" s="5">
-        <f>Inputs!$C$17</f>
-        <v/>
-      </c>
-      <c r="D19" s="5">
-        <f>Inputs!$D$17</f>
-        <v/>
-      </c>
-      <c r="E19" s="5">
-        <f>Inputs!$E$17</f>
-        <v/>
-      </c>
-      <c r="F19" s="5">
-        <f>Inputs!$F$17</f>
-        <v/>
-      </c>
-      <c r="G19" s="5">
-        <f>Inputs!$G$17</f>
-        <v/>
-      </c>
-      <c r="H19" s="5">
-        <f>Inputs!$H$17</f>
-        <v/>
-      </c>
-      <c r="I19" s="5">
-        <f>Inputs!$I$17</f>
-        <v/>
-      </c>
-      <c r="J19" s="5">
-        <f>Inputs!$J$17</f>
-        <v/>
-      </c>
-      <c r="K19" s="5">
-        <f>Inputs!$K$17</f>
-        <v/>
-      </c>
-      <c r="L19" s="5">
-        <f>Inputs!$L$17</f>
-        <v/>
-      </c>
-      <c r="M19" s="5">
-        <f>Inputs!$M$17</f>
-        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amortization (Expense)</t>
+          <t>Opening Prepayments</t>
         </is>
       </c>
       <c r="B20" s="5">
-        <f>B19/Inputs!$B$18</f>
+        <f>Inputs!$B$44</f>
         <v/>
       </c>
       <c r="C20" s="5">
-        <f>C19/Inputs!$C$18</f>
+        <f>B23</f>
         <v/>
       </c>
       <c r="D20" s="5">
-        <f>D19/Inputs!$D$18</f>
+        <f>C23</f>
         <v/>
       </c>
       <c r="E20" s="5">
-        <f>E19/Inputs!$E$18</f>
+        <f>D23</f>
         <v/>
       </c>
       <c r="F20" s="5">
-        <f>F19/Inputs!$F$18</f>
+        <f>E23</f>
         <v/>
       </c>
       <c r="G20" s="5">
-        <f>G19/Inputs!$G$18</f>
+        <f>F23</f>
         <v/>
       </c>
       <c r="H20" s="5">
-        <f>H19/Inputs!$H$18</f>
+        <f>G23</f>
         <v/>
       </c>
       <c r="I20" s="5">
-        <f>I19/Inputs!$I$18</f>
+        <f>H23</f>
         <v/>
       </c>
       <c r="J20" s="5">
-        <f>J19/Inputs!$J$18</f>
+        <f>I23</f>
         <v/>
       </c>
       <c r="K20" s="5">
-        <f>K19/Inputs!$K$18</f>
+        <f>J23</f>
         <v/>
       </c>
       <c r="L20" s="5">
-        <f>L19/Inputs!$L$18</f>
+        <f>K23</f>
         <v/>
       </c>
       <c r="M20" s="5">
-        <f>M19/Inputs!$M$18</f>
+        <f>L23</f>
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>New Prepayments (Cash Paid)</t>
+        </is>
+      </c>
+      <c r="B21" s="5">
+        <f>Inputs!$B$17</f>
+        <v/>
+      </c>
+      <c r="C21" s="5">
+        <f>Inputs!$C$17</f>
+        <v/>
+      </c>
+      <c r="D21" s="5">
+        <f>Inputs!$D$17</f>
+        <v/>
+      </c>
+      <c r="E21" s="5">
+        <f>Inputs!$E$17</f>
+        <v/>
+      </c>
+      <c r="F21" s="5">
+        <f>Inputs!$F$17</f>
+        <v/>
+      </c>
+      <c r="G21" s="5">
+        <f>Inputs!$G$17</f>
+        <v/>
+      </c>
+      <c r="H21" s="5">
+        <f>Inputs!$H$17</f>
+        <v/>
+      </c>
+      <c r="I21" s="5">
+        <f>Inputs!$I$17</f>
+        <v/>
+      </c>
+      <c r="J21" s="5">
+        <f>Inputs!$J$17</f>
+        <v/>
+      </c>
+      <c r="K21" s="5">
+        <f>Inputs!$K$17</f>
+        <v/>
+      </c>
+      <c r="L21" s="5">
+        <f>Inputs!$L$17</f>
+        <v/>
+      </c>
+      <c r="M21" s="5">
+        <f>Inputs!$M$17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Amortization (Expense)</t>
+        </is>
+      </c>
+      <c r="B22" s="5">
+        <f>B21/Inputs!$B$18</f>
+        <v/>
+      </c>
+      <c r="C22" s="5">
+        <f>C21/Inputs!$C$18</f>
+        <v/>
+      </c>
+      <c r="D22" s="5">
+        <f>D21/Inputs!$D$18</f>
+        <v/>
+      </c>
+      <c r="E22" s="5">
+        <f>E21/Inputs!$E$18</f>
+        <v/>
+      </c>
+      <c r="F22" s="5">
+        <f>F21/Inputs!$F$18</f>
+        <v/>
+      </c>
+      <c r="G22" s="5">
+        <f>G21/Inputs!$G$18</f>
+        <v/>
+      </c>
+      <c r="H22" s="5">
+        <f>H21/Inputs!$H$18</f>
+        <v/>
+      </c>
+      <c r="I22" s="5">
+        <f>I21/Inputs!$I$18</f>
+        <v/>
+      </c>
+      <c r="J22" s="5">
+        <f>J21/Inputs!$J$18</f>
+        <v/>
+      </c>
+      <c r="K22" s="5">
+        <f>K21/Inputs!$K$18</f>
+        <v/>
+      </c>
+      <c r="L22" s="5">
+        <f>L21/Inputs!$L$18</f>
+        <v/>
+      </c>
+      <c r="M22" s="5">
+        <f>M21/Inputs!$M$18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Closing Prepayments</t>
         </is>
       </c>
-      <c r="B21" s="10">
-        <f>B18+B19-B20</f>
-        <v/>
-      </c>
-      <c r="C21" s="10">
-        <f>C18+C19-C20</f>
-        <v/>
-      </c>
-      <c r="D21" s="10">
-        <f>D18+D19-D20</f>
-        <v/>
-      </c>
-      <c r="E21" s="10">
-        <f>E18+E19-E20</f>
-        <v/>
-      </c>
-      <c r="F21" s="10">
-        <f>F18+F19-F20</f>
-        <v/>
-      </c>
-      <c r="G21" s="10">
-        <f>G18+G19-G20</f>
-        <v/>
-      </c>
-      <c r="H21" s="10">
-        <f>H18+H19-H20</f>
-        <v/>
-      </c>
-      <c r="I21" s="10">
-        <f>I18+I19-I20</f>
-        <v/>
-      </c>
-      <c r="J21" s="10">
-        <f>J18+J19-J20</f>
-        <v/>
-      </c>
-      <c r="K21" s="10">
-        <f>K18+K19-K20</f>
-        <v/>
-      </c>
-      <c r="L21" s="10">
-        <f>L18+L19-L20</f>
-        <v/>
-      </c>
-      <c r="M21" s="10">
-        <f>M18+M19-M20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="inlineStr">
+      <c r="B23" s="9">
+        <f>B20+B21-B22</f>
+        <v/>
+      </c>
+      <c r="C23" s="9">
+        <f>C20+C21-C22</f>
+        <v/>
+      </c>
+      <c r="D23" s="9">
+        <f>D20+D21-D22</f>
+        <v/>
+      </c>
+      <c r="E23" s="9">
+        <f>E20+E21-E22</f>
+        <v/>
+      </c>
+      <c r="F23" s="9">
+        <f>F20+F21-F22</f>
+        <v/>
+      </c>
+      <c r="G23" s="9">
+        <f>G20+G21-G22</f>
+        <v/>
+      </c>
+      <c r="H23" s="9">
+        <f>H20+H21-H22</f>
+        <v/>
+      </c>
+      <c r="I23" s="9">
+        <f>I20+I21-I22</f>
+        <v/>
+      </c>
+      <c r="J23" s="9">
+        <f>J20+J21-J22</f>
+        <v/>
+      </c>
+      <c r="K23" s="9">
+        <f>K20+K21-K22</f>
+        <v/>
+      </c>
+      <c r="L23" s="9">
+        <f>L20+L21-L22</f>
+        <v/>
+      </c>
+      <c r="M23" s="9">
+        <f>M20+M21-M22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
         <is>
           <t>FIXED ASSETS CONTROL (GROSS)</t>
         </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Opening Fixed Assets (Gross)</t>
-        </is>
-      </c>
-      <c r="B24" s="5">
-        <f>Inputs!$B$45</f>
-        <v/>
-      </c>
-      <c r="C24" s="5">
-        <f>B27</f>
-        <v/>
-      </c>
-      <c r="D24" s="5">
-        <f>C27</f>
-        <v/>
-      </c>
-      <c r="E24" s="5">
-        <f>D27</f>
-        <v/>
-      </c>
-      <c r="F24" s="5">
-        <f>E27</f>
-        <v/>
-      </c>
-      <c r="G24" s="5">
-        <f>F27</f>
-        <v/>
-      </c>
-      <c r="H24" s="5">
-        <f>G27</f>
-        <v/>
-      </c>
-      <c r="I24" s="5">
-        <f>H27</f>
-        <v/>
-      </c>
-      <c r="J24" s="5">
-        <f>I27</f>
-        <v/>
-      </c>
-      <c r="K24" s="5">
-        <f>J27</f>
-        <v/>
-      </c>
-      <c r="L24" s="5">
-        <f>K27</f>
-        <v/>
-      </c>
-      <c r="M24" s="5">
-        <f>L27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Capex Additions</t>
-        </is>
-      </c>
-      <c r="B25" s="5">
-        <f>Inputs!$B$23</f>
-        <v/>
-      </c>
-      <c r="C25" s="5">
-        <f>Inputs!$C$23</f>
-        <v/>
-      </c>
-      <c r="D25" s="5">
-        <f>Inputs!$D$23</f>
-        <v/>
-      </c>
-      <c r="E25" s="5">
-        <f>Inputs!$E$23</f>
-        <v/>
-      </c>
-      <c r="F25" s="5">
-        <f>Inputs!$F$23</f>
-        <v/>
-      </c>
-      <c r="G25" s="5">
-        <f>Inputs!$G$23</f>
-        <v/>
-      </c>
-      <c r="H25" s="5">
-        <f>Inputs!$H$23</f>
-        <v/>
-      </c>
-      <c r="I25" s="5">
-        <f>Inputs!$I$23</f>
-        <v/>
-      </c>
-      <c r="J25" s="5">
-        <f>Inputs!$J$23</f>
-        <v/>
-      </c>
-      <c r="K25" s="5">
-        <f>Inputs!$K$23</f>
-        <v/>
-      </c>
-      <c r="L25" s="5">
-        <f>Inputs!$L$23</f>
-        <v/>
-      </c>
-      <c r="M25" s="5">
-        <f>Inputs!$M$23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Disposals (Gross)</t>
-        </is>
-      </c>
-      <c r="B26" s="5">
-        <f>Inputs!$B$25</f>
-        <v/>
-      </c>
-      <c r="C26" s="5">
-        <f>Inputs!$C$25</f>
-        <v/>
-      </c>
-      <c r="D26" s="5">
-        <f>Inputs!$D$25</f>
-        <v/>
-      </c>
-      <c r="E26" s="5">
-        <f>Inputs!$E$25</f>
-        <v/>
-      </c>
-      <c r="F26" s="5">
-        <f>Inputs!$F$25</f>
-        <v/>
-      </c>
-      <c r="G26" s="5">
-        <f>Inputs!$G$25</f>
-        <v/>
-      </c>
-      <c r="H26" s="5">
-        <f>Inputs!$H$25</f>
-        <v/>
-      </c>
-      <c r="I26" s="5">
-        <f>Inputs!$I$25</f>
-        <v/>
-      </c>
-      <c r="J26" s="5">
-        <f>Inputs!$J$25</f>
-        <v/>
-      </c>
-      <c r="K26" s="5">
-        <f>Inputs!$K$25</f>
-        <v/>
-      </c>
-      <c r="L26" s="5">
-        <f>Inputs!$L$25</f>
-        <v/>
-      </c>
-      <c r="M26" s="5">
-        <f>Inputs!$M$25</f>
-        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Closing Fixed Assets (Gross)</t>
-        </is>
-      </c>
-      <c r="B27" s="10">
-        <f>B24+B25-B26</f>
-        <v/>
-      </c>
-      <c r="C27" s="10">
-        <f>C24+C25-C26</f>
-        <v/>
-      </c>
-      <c r="D27" s="10">
-        <f>D24+D25-D26</f>
-        <v/>
-      </c>
-      <c r="E27" s="10">
-        <f>E24+E25-E26</f>
-        <v/>
-      </c>
-      <c r="F27" s="10">
-        <f>F24+F25-F26</f>
-        <v/>
-      </c>
-      <c r="G27" s="10">
-        <f>G24+G25-G26</f>
-        <v/>
-      </c>
-      <c r="H27" s="10">
-        <f>H24+H25-H26</f>
-        <v/>
-      </c>
-      <c r="I27" s="10">
-        <f>I24+I25-I26</f>
-        <v/>
-      </c>
-      <c r="J27" s="10">
-        <f>J24+J25-J26</f>
-        <v/>
-      </c>
-      <c r="K27" s="10">
-        <f>K24+K25-K26</f>
-        <v/>
-      </c>
-      <c r="L27" s="10">
-        <f>L24+L25-L26</f>
-        <v/>
-      </c>
-      <c r="M27" s="10">
-        <f>M24+M25-M26</f>
+          <t>Opening Fixed Assets (Gross)</t>
+        </is>
+      </c>
+      <c r="B27" s="5">
+        <f>Inputs!$B$45</f>
+        <v/>
+      </c>
+      <c r="C27" s="5">
+        <f>B30</f>
+        <v/>
+      </c>
+      <c r="D27" s="5">
+        <f>C30</f>
+        <v/>
+      </c>
+      <c r="E27" s="5">
+        <f>D30</f>
+        <v/>
+      </c>
+      <c r="F27" s="5">
+        <f>E30</f>
+        <v/>
+      </c>
+      <c r="G27" s="5">
+        <f>F30</f>
+        <v/>
+      </c>
+      <c r="H27" s="5">
+        <f>G30</f>
+        <v/>
+      </c>
+      <c r="I27" s="5">
+        <f>H30</f>
+        <v/>
+      </c>
+      <c r="J27" s="5">
+        <f>I30</f>
+        <v/>
+      </c>
+      <c r="K27" s="5">
+        <f>J30</f>
+        <v/>
+      </c>
+      <c r="L27" s="5">
+        <f>K30</f>
+        <v/>
+      </c>
+      <c r="M27" s="5">
+        <f>L30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Capex Additions</t>
+        </is>
+      </c>
+      <c r="B28" s="5">
+        <f>Inputs!$B$23</f>
+        <v/>
+      </c>
+      <c r="C28" s="5">
+        <f>Inputs!$C$23</f>
+        <v/>
+      </c>
+      <c r="D28" s="5">
+        <f>Inputs!$D$23</f>
+        <v/>
+      </c>
+      <c r="E28" s="5">
+        <f>Inputs!$E$23</f>
+        <v/>
+      </c>
+      <c r="F28" s="5">
+        <f>Inputs!$F$23</f>
+        <v/>
+      </c>
+      <c r="G28" s="5">
+        <f>Inputs!$G$23</f>
+        <v/>
+      </c>
+      <c r="H28" s="5">
+        <f>Inputs!$H$23</f>
+        <v/>
+      </c>
+      <c r="I28" s="5">
+        <f>Inputs!$I$23</f>
+        <v/>
+      </c>
+      <c r="J28" s="5">
+        <f>Inputs!$J$23</f>
+        <v/>
+      </c>
+      <c r="K28" s="5">
+        <f>Inputs!$K$23</f>
+        <v/>
+      </c>
+      <c r="L28" s="5">
+        <f>Inputs!$L$23</f>
+        <v/>
+      </c>
+      <c r="M28" s="5">
+        <f>Inputs!$M$23</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="inlineStr">
-        <is>
-          <t>ACCUMULATED DEPRECIATION CONTROL</t>
-        </is>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Disposals (Gross)</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Closing Fixed Assets (Gross)</t>
+        </is>
+      </c>
+      <c r="B30" s="9">
+        <f>B27+B28-B29</f>
+        <v/>
+      </c>
+      <c r="C30" s="9">
+        <f>C27+C28-C29</f>
+        <v/>
+      </c>
+      <c r="D30" s="9">
+        <f>D27+D28-D29</f>
+        <v/>
+      </c>
+      <c r="E30" s="9">
+        <f>E27+E28-E29</f>
+        <v/>
+      </c>
+      <c r="F30" s="9">
+        <f>F27+F28-F29</f>
+        <v/>
+      </c>
+      <c r="G30" s="9">
+        <f>G27+G28-G29</f>
+        <v/>
+      </c>
+      <c r="H30" s="9">
+        <f>H27+H28-H29</f>
+        <v/>
+      </c>
+      <c r="I30" s="9">
+        <f>I27+I28-I29</f>
+        <v/>
+      </c>
+      <c r="J30" s="9">
+        <f>J27+J28-J29</f>
+        <v/>
+      </c>
+      <c r="K30" s="9">
+        <f>K27+K28-K29</f>
+        <v/>
+      </c>
+      <c r="L30" s="9">
+        <f>L27+L28-L29</f>
+        <v/>
+      </c>
+      <c r="M30" s="9">
+        <f>M27+M28-M29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>ACCUMULATED DEPRECIATION CONTROL</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Opening Accumulated Depreciation</t>
         </is>
       </c>
-      <c r="B30" s="5">
+      <c r="B34" s="5">
         <f>Inputs!$B$46</f>
         <v/>
       </c>
-      <c r="C30" s="5">
-        <f>B33</f>
-        <v/>
-      </c>
-      <c r="D30" s="5">
-        <f>C33</f>
-        <v/>
-      </c>
-      <c r="E30" s="5">
-        <f>D33</f>
-        <v/>
-      </c>
-      <c r="F30" s="5">
-        <f>E33</f>
-        <v/>
-      </c>
-      <c r="G30" s="5">
-        <f>F33</f>
-        <v/>
-      </c>
-      <c r="H30" s="5">
-        <f>G33</f>
-        <v/>
-      </c>
-      <c r="I30" s="5">
-        <f>H33</f>
-        <v/>
-      </c>
-      <c r="J30" s="5">
-        <f>I33</f>
-        <v/>
-      </c>
-      <c r="K30" s="5">
-        <f>J33</f>
-        <v/>
-      </c>
-      <c r="L30" s="5">
-        <f>K33</f>
-        <v/>
-      </c>
-      <c r="M30" s="5">
-        <f>L33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Depreciation Expense</t>
-        </is>
-      </c>
-      <c r="B31" s="5">
-        <f>B26*Inputs!$B$24/12</f>
-        <v/>
-      </c>
-      <c r="C31" s="5">
-        <f>C26*Inputs!$C$24/12</f>
-        <v/>
-      </c>
-      <c r="D31" s="5">
-        <f>D26*Inputs!$D$24/12</f>
-        <v/>
-      </c>
-      <c r="E31" s="5">
-        <f>E26*Inputs!$E$24/12</f>
-        <v/>
-      </c>
-      <c r="F31" s="5">
-        <f>F26*Inputs!$F$24/12</f>
-        <v/>
-      </c>
-      <c r="G31" s="5">
-        <f>G26*Inputs!$G$24/12</f>
-        <v/>
-      </c>
-      <c r="H31" s="5">
-        <f>H26*Inputs!$H$24/12</f>
-        <v/>
-      </c>
-      <c r="I31" s="5">
-        <f>I26*Inputs!$I$24/12</f>
-        <v/>
-      </c>
-      <c r="J31" s="5">
-        <f>J26*Inputs!$J$24/12</f>
-        <v/>
-      </c>
-      <c r="K31" s="5">
-        <f>K26*Inputs!$K$24/12</f>
-        <v/>
-      </c>
-      <c r="L31" s="5">
-        <f>L26*Inputs!$L$24/12</f>
-        <v/>
-      </c>
-      <c r="M31" s="5">
-        <f>M26*Inputs!$M$24/12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Disposal Depreciation</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Closing Accumulated Depreciation</t>
-        </is>
-      </c>
-      <c r="B33" s="10">
-        <f>B30+B31-B32</f>
-        <v/>
-      </c>
-      <c r="C33" s="10">
-        <f>C30+C31-C32</f>
-        <v/>
-      </c>
-      <c r="D33" s="10">
-        <f>D30+D31-D32</f>
-        <v/>
-      </c>
-      <c r="E33" s="10">
-        <f>E30+E31-E32</f>
-        <v/>
-      </c>
-      <c r="F33" s="10">
-        <f>F30+F31-F32</f>
-        <v/>
-      </c>
-      <c r="G33" s="10">
-        <f>G30+G31-G32</f>
-        <v/>
-      </c>
-      <c r="H33" s="10">
-        <f>H30+H31-H32</f>
-        <v/>
-      </c>
-      <c r="I33" s="10">
-        <f>I30+I31-I32</f>
-        <v/>
-      </c>
-      <c r="J33" s="10">
-        <f>J30+J31-J32</f>
-        <v/>
-      </c>
-      <c r="K33" s="10">
-        <f>K30+K31-K32</f>
-        <v/>
-      </c>
-      <c r="L33" s="10">
-        <f>L30+L31-L32</f>
-        <v/>
-      </c>
-      <c r="M33" s="10">
-        <f>M30+M31-M32</f>
+      <c r="C34" s="5">
+        <f>B37</f>
+        <v/>
+      </c>
+      <c r="D34" s="5">
+        <f>C37</f>
+        <v/>
+      </c>
+      <c r="E34" s="5">
+        <f>D37</f>
+        <v/>
+      </c>
+      <c r="F34" s="5">
+        <f>E37</f>
+        <v/>
+      </c>
+      <c r="G34" s="5">
+        <f>F37</f>
+        <v/>
+      </c>
+      <c r="H34" s="5">
+        <f>G37</f>
+        <v/>
+      </c>
+      <c r="I34" s="5">
+        <f>H37</f>
+        <v/>
+      </c>
+      <c r="J34" s="5">
+        <f>I37</f>
+        <v/>
+      </c>
+      <c r="K34" s="5">
+        <f>J37</f>
+        <v/>
+      </c>
+      <c r="L34" s="5">
+        <f>K37</f>
+        <v/>
+      </c>
+      <c r="M34" s="5">
+        <f>L37</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Net Fixed Assets</t>
-        </is>
-      </c>
-      <c r="B35" s="11">
-        <f>B29-B34</f>
-        <v/>
-      </c>
-      <c r="C35" s="11">
-        <f>C29-C34</f>
-        <v/>
-      </c>
-      <c r="D35" s="11">
-        <f>D29-D34</f>
-        <v/>
-      </c>
-      <c r="E35" s="11">
-        <f>E29-E34</f>
-        <v/>
-      </c>
-      <c r="F35" s="11">
-        <f>F29-F34</f>
-        <v/>
-      </c>
-      <c r="G35" s="11">
-        <f>G29-G34</f>
-        <v/>
-      </c>
-      <c r="H35" s="11">
-        <f>H29-H34</f>
-        <v/>
-      </c>
-      <c r="I35" s="11">
-        <f>I29-I34</f>
-        <v/>
-      </c>
-      <c r="J35" s="11">
-        <f>J29-J34</f>
-        <v/>
-      </c>
-      <c r="K35" s="11">
-        <f>K29-K34</f>
-        <v/>
-      </c>
-      <c r="L35" s="11">
-        <f>L29-L34</f>
-        <v/>
-      </c>
-      <c r="M35" s="11">
-        <f>M29-M34</f>
-        <v/>
+          <t>Depreciation Expense</t>
+        </is>
+      </c>
+      <c r="B35" s="5">
+        <f>B27*Inputs!$B$24/12</f>
+        <v/>
+      </c>
+      <c r="C35" s="5">
+        <f>C27*Inputs!$C$24/12</f>
+        <v/>
+      </c>
+      <c r="D35" s="5">
+        <f>D27*Inputs!$D$24/12</f>
+        <v/>
+      </c>
+      <c r="E35" s="5">
+        <f>E27*Inputs!$E$24/12</f>
+        <v/>
+      </c>
+      <c r="F35" s="5">
+        <f>F27*Inputs!$F$24/12</f>
+        <v/>
+      </c>
+      <c r="G35" s="5">
+        <f>G27*Inputs!$G$24/12</f>
+        <v/>
+      </c>
+      <c r="H35" s="5">
+        <f>H27*Inputs!$H$24/12</f>
+        <v/>
+      </c>
+      <c r="I35" s="5">
+        <f>I27*Inputs!$I$24/12</f>
+        <v/>
+      </c>
+      <c r="J35" s="5">
+        <f>J27*Inputs!$J$24/12</f>
+        <v/>
+      </c>
+      <c r="K35" s="5">
+        <f>K27*Inputs!$K$24/12</f>
+        <v/>
+      </c>
+      <c r="L35" s="5">
+        <f>L27*Inputs!$L$24/12</f>
+        <v/>
+      </c>
+      <c r="M35" s="5">
+        <f>M27*Inputs!$M$24/12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Disposal Depreciation</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>ACCOUNTS PAYABLE CONTROL</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Opening AP</t>
-        </is>
-      </c>
-      <c r="B38" s="5">
-        <f>Inputs!$B$47</f>
-        <v/>
-      </c>
-      <c r="C38" s="5">
-        <f>B41</f>
-        <v/>
-      </c>
-      <c r="D38" s="5">
-        <f>C41</f>
-        <v/>
-      </c>
-      <c r="E38" s="5">
-        <f>D41</f>
-        <v/>
-      </c>
-      <c r="F38" s="5">
-        <f>E41</f>
-        <v/>
-      </c>
-      <c r="G38" s="5">
-        <f>F41</f>
-        <v/>
-      </c>
-      <c r="H38" s="5">
-        <f>G41</f>
-        <v/>
-      </c>
-      <c r="I38" s="5">
-        <f>H41</f>
-        <v/>
-      </c>
-      <c r="J38" s="5">
-        <f>I41</f>
-        <v/>
-      </c>
-      <c r="K38" s="5">
-        <f>J41</f>
-        <v/>
-      </c>
-      <c r="L38" s="5">
-        <f>K41</f>
-        <v/>
-      </c>
-      <c r="M38" s="5">
-        <f>L41</f>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Closing Accumulated Depreciation</t>
+        </is>
+      </c>
+      <c r="B37" s="9">
+        <f>B34+B35-B36</f>
+        <v/>
+      </c>
+      <c r="C37" s="9">
+        <f>C34+C35-C36</f>
+        <v/>
+      </c>
+      <c r="D37" s="9">
+        <f>D34+D35-D36</f>
+        <v/>
+      </c>
+      <c r="E37" s="9">
+        <f>E34+E35-E36</f>
+        <v/>
+      </c>
+      <c r="F37" s="9">
+        <f>F34+F35-F36</f>
+        <v/>
+      </c>
+      <c r="G37" s="9">
+        <f>G34+G35-G36</f>
+        <v/>
+      </c>
+      <c r="H37" s="9">
+        <f>H34+H35-H36</f>
+        <v/>
+      </c>
+      <c r="I37" s="9">
+        <f>I34+I35-I36</f>
+        <v/>
+      </c>
+      <c r="J37" s="9">
+        <f>J34+J35-J36</f>
+        <v/>
+      </c>
+      <c r="K37" s="9">
+        <f>K34+K35-K36</f>
+        <v/>
+      </c>
+      <c r="L37" s="9">
+        <f>L34+L35-L36</f>
+        <v/>
+      </c>
+      <c r="M37" s="9">
+        <f>M34+M35-M36</f>
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Purchases (Credit)</t>
-        </is>
-      </c>
-      <c r="B39" s="5">
-        <f>B1</f>
-        <v/>
-      </c>
-      <c r="C39" s="5">
-        <f>C1</f>
-        <v/>
-      </c>
-      <c r="D39" s="5">
-        <f>D1</f>
-        <v/>
-      </c>
-      <c r="E39" s="5">
-        <f>E1</f>
-        <v/>
-      </c>
-      <c r="F39" s="5">
-        <f>F1</f>
-        <v/>
-      </c>
-      <c r="G39" s="5">
-        <f>G1</f>
-        <v/>
-      </c>
-      <c r="H39" s="5">
-        <f>H1</f>
-        <v/>
-      </c>
-      <c r="I39" s="5">
-        <f>I1</f>
-        <v/>
-      </c>
-      <c r="J39" s="5">
-        <f>J1</f>
-        <v/>
-      </c>
-      <c r="K39" s="5">
-        <f>K1</f>
-        <v/>
-      </c>
-      <c r="L39" s="5">
-        <f>L1</f>
-        <v/>
-      </c>
-      <c r="M39" s="5">
-        <f>M1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cash Payments</t>
-        </is>
-      </c>
-      <c r="B40" s="5">
-        <f>B39*0.5</f>
-        <v/>
-      </c>
-      <c r="C40" s="5">
-        <f>B39</f>
-        <v/>
-      </c>
-      <c r="D40" s="5">
-        <f>C39</f>
-        <v/>
-      </c>
-      <c r="E40" s="5">
-        <f>D39</f>
-        <v/>
-      </c>
-      <c r="F40" s="5">
-        <f>E39</f>
-        <v/>
-      </c>
-      <c r="G40" s="5">
-        <f>F39</f>
-        <v/>
-      </c>
-      <c r="H40" s="5">
-        <f>G39</f>
-        <v/>
-      </c>
-      <c r="I40" s="5">
-        <f>H39</f>
-        <v/>
-      </c>
-      <c r="J40" s="5">
-        <f>I39</f>
-        <v/>
-      </c>
-      <c r="K40" s="5">
-        <f>J39</f>
-        <v/>
-      </c>
-      <c r="L40" s="5">
-        <f>K39</f>
-        <v/>
-      </c>
-      <c r="M40" s="5">
-        <f>L39</f>
+          <t>Net Fixed Assets</t>
+        </is>
+      </c>
+      <c r="B39" s="10">
+        <f>B30-B37</f>
+        <v/>
+      </c>
+      <c r="C39" s="10">
+        <f>C30-C37</f>
+        <v/>
+      </c>
+      <c r="D39" s="10">
+        <f>D30-D37</f>
+        <v/>
+      </c>
+      <c r="E39" s="10">
+        <f>E30-E37</f>
+        <v/>
+      </c>
+      <c r="F39" s="10">
+        <f>F30-F37</f>
+        <v/>
+      </c>
+      <c r="G39" s="10">
+        <f>G30-G37</f>
+        <v/>
+      </c>
+      <c r="H39" s="10">
+        <f>H30-H37</f>
+        <v/>
+      </c>
+      <c r="I39" s="10">
+        <f>I30-I37</f>
+        <v/>
+      </c>
+      <c r="J39" s="10">
+        <f>J30-J37</f>
+        <v/>
+      </c>
+      <c r="K39" s="10">
+        <f>K30-K37</f>
+        <v/>
+      </c>
+      <c r="L39" s="10">
+        <f>L30-L37</f>
+        <v/>
+      </c>
+      <c r="M39" s="10">
+        <f>M30-M37</f>
         <v/>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Closing AP</t>
-        </is>
-      </c>
-      <c r="B41" s="10">
-        <f>B38+B39-B40</f>
-        <v/>
-      </c>
-      <c r="C41" s="10">
-        <f>C38+C39-C40</f>
-        <v/>
-      </c>
-      <c r="D41" s="10">
-        <f>D38+D39-D40</f>
-        <v/>
-      </c>
-      <c r="E41" s="10">
-        <f>E38+E39-E40</f>
-        <v/>
-      </c>
-      <c r="F41" s="10">
-        <f>F38+F39-F40</f>
-        <v/>
-      </c>
-      <c r="G41" s="10">
-        <f>G38+G39-G40</f>
-        <v/>
-      </c>
-      <c r="H41" s="10">
-        <f>H38+H39-H40</f>
-        <v/>
-      </c>
-      <c r="I41" s="10">
-        <f>I38+I39-I40</f>
-        <v/>
-      </c>
-      <c r="J41" s="10">
-        <f>J38+J39-J40</f>
-        <v/>
-      </c>
-      <c r="K41" s="10">
-        <f>K38+K39-K40</f>
-        <v/>
-      </c>
-      <c r="L41" s="10">
-        <f>L38+L39-L40</f>
-        <v/>
-      </c>
-      <c r="M41" s="10">
-        <f>M38+M39-M40</f>
-        <v/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>ACCOUNTS PAYABLE CONTROL</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>ACCRUED EXPENSES CONTROL</t>
-        </is>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Opening AP</t>
+        </is>
+      </c>
+      <c r="B43" s="5">
+        <f>Inputs!$B$47</f>
+        <v/>
+      </c>
+      <c r="C43" s="5">
+        <f>B46</f>
+        <v/>
+      </c>
+      <c r="D43" s="5">
+        <f>C46</f>
+        <v/>
+      </c>
+      <c r="E43" s="5">
+        <f>D46</f>
+        <v/>
+      </c>
+      <c r="F43" s="5">
+        <f>E46</f>
+        <v/>
+      </c>
+      <c r="G43" s="5">
+        <f>F46</f>
+        <v/>
+      </c>
+      <c r="H43" s="5">
+        <f>G46</f>
+        <v/>
+      </c>
+      <c r="I43" s="5">
+        <f>H46</f>
+        <v/>
+      </c>
+      <c r="J43" s="5">
+        <f>I46</f>
+        <v/>
+      </c>
+      <c r="K43" s="5">
+        <f>J46</f>
+        <v/>
+      </c>
+      <c r="L43" s="5">
+        <f>K46</f>
+        <v/>
+      </c>
+      <c r="M43" s="5">
+        <f>L46</f>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Opening Accrued Expenses</t>
+          <t>Purchases (Credit)</t>
         </is>
       </c>
       <c r="B44" s="5">
-        <f>Inputs!$B$48</f>
+        <f>B14</f>
         <v/>
       </c>
       <c r="C44" s="5">
-        <f>B47</f>
+        <f>C14</f>
         <v/>
       </c>
       <c r="D44" s="5">
-        <f>C47</f>
+        <f>D14</f>
         <v/>
       </c>
       <c r="E44" s="5">
-        <f>D47</f>
+        <f>E14</f>
         <v/>
       </c>
       <c r="F44" s="5">
-        <f>E47</f>
+        <f>F14</f>
         <v/>
       </c>
       <c r="G44" s="5">
-        <f>F47</f>
+        <f>G14</f>
         <v/>
       </c>
       <c r="H44" s="5">
-        <f>G47</f>
+        <f>H14</f>
         <v/>
       </c>
       <c r="I44" s="5">
-        <f>H47</f>
+        <f>I14</f>
         <v/>
       </c>
       <c r="J44" s="5">
-        <f>I47</f>
+        <f>J14</f>
         <v/>
       </c>
       <c r="K44" s="5">
-        <f>J47</f>
+        <f>K14</f>
         <v/>
       </c>
       <c r="L44" s="5">
-        <f>K47</f>
+        <f>L14</f>
         <v/>
       </c>
       <c r="M44" s="5">
-        <f>L47</f>
+        <f>M14</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Accruals (Expense Recognition)</t>
+          <t>Cash Payments</t>
         </is>
       </c>
       <c r="B45" s="5">
-        <f>Inputs!$B$12*0.5</f>
+        <f>B44*0.5</f>
         <v/>
       </c>
       <c r="C45" s="5">
-        <f>Inputs!$C$12*0.5</f>
+        <f>B44</f>
         <v/>
       </c>
       <c r="D45" s="5">
-        <f>Inputs!$D$12*0.5</f>
+        <f>C44</f>
         <v/>
       </c>
       <c r="E45" s="5">
-        <f>Inputs!$E$12*0.5</f>
+        <f>D44</f>
         <v/>
       </c>
       <c r="F45" s="5">
-        <f>Inputs!$F$12*0.5</f>
+        <f>E44</f>
         <v/>
       </c>
       <c r="G45" s="5">
-        <f>Inputs!$G$12*0.5</f>
+        <f>F44</f>
         <v/>
       </c>
       <c r="H45" s="5">
-        <f>Inputs!$H$12*0.5</f>
+        <f>G44</f>
         <v/>
       </c>
       <c r="I45" s="5">
-        <f>Inputs!$I$12*0.5</f>
+        <f>H44</f>
         <v/>
       </c>
       <c r="J45" s="5">
-        <f>Inputs!$J$12*0.5</f>
+        <f>I44</f>
         <v/>
       </c>
       <c r="K45" s="5">
-        <f>Inputs!$K$12*0.5</f>
+        <f>J44</f>
         <v/>
       </c>
       <c r="L45" s="5">
-        <f>Inputs!$L$12*0.5</f>
+        <f>K44</f>
         <v/>
       </c>
       <c r="M45" s="5">
-        <f>Inputs!$M$12*0.5</f>
+        <f>L44</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cash Payments</t>
-        </is>
-      </c>
-      <c r="B46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="5">
-        <f>B45</f>
-        <v/>
-      </c>
-      <c r="D46" s="5">
-        <f>C45</f>
-        <v/>
-      </c>
-      <c r="E46" s="5">
-        <f>D45</f>
-        <v/>
-      </c>
-      <c r="F46" s="5">
-        <f>E45</f>
-        <v/>
-      </c>
-      <c r="G46" s="5">
-        <f>F45</f>
-        <v/>
-      </c>
-      <c r="H46" s="5">
-        <f>G45</f>
-        <v/>
-      </c>
-      <c r="I46" s="5">
-        <f>H45</f>
-        <v/>
-      </c>
-      <c r="J46" s="5">
-        <f>I45</f>
-        <v/>
-      </c>
-      <c r="K46" s="5">
-        <f>J45</f>
-        <v/>
-      </c>
-      <c r="L46" s="5">
-        <f>K45</f>
-        <v/>
-      </c>
-      <c r="M46" s="5">
-        <f>L45</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Closing Accrued Expenses</t>
-        </is>
-      </c>
-      <c r="B47" s="10">
-        <f>B44+B45-B46</f>
-        <v/>
-      </c>
-      <c r="C47" s="10">
-        <f>C44+C45-C46</f>
-        <v/>
-      </c>
-      <c r="D47" s="10">
-        <f>D44+D45-D46</f>
-        <v/>
-      </c>
-      <c r="E47" s="10">
-        <f>E44+E45-E46</f>
-        <v/>
-      </c>
-      <c r="F47" s="10">
-        <f>F44+F45-F46</f>
-        <v/>
-      </c>
-      <c r="G47" s="10">
-        <f>G44+G45-G46</f>
-        <v/>
-      </c>
-      <c r="H47" s="10">
-        <f>H44+H45-H46</f>
-        <v/>
-      </c>
-      <c r="I47" s="10">
-        <f>I44+I45-I46</f>
-        <v/>
-      </c>
-      <c r="J47" s="10">
-        <f>J44+J45-J46</f>
-        <v/>
-      </c>
-      <c r="K47" s="10">
-        <f>K44+K45-K46</f>
-        <v/>
-      </c>
-      <c r="L47" s="10">
-        <f>L44+L45-L46</f>
-        <v/>
-      </c>
-      <c r="M47" s="10">
-        <f>M44+M45-M46</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
-        <is>
-          <t>DEFERRED REVENUE CONTROL</t>
+          <t>Closing AP</t>
+        </is>
+      </c>
+      <c r="B46" s="9">
+        <f>B43+B44-B45</f>
+        <v/>
+      </c>
+      <c r="C46" s="9">
+        <f>C43+C44-C45</f>
+        <v/>
+      </c>
+      <c r="D46" s="9">
+        <f>D43+D44-D45</f>
+        <v/>
+      </c>
+      <c r="E46" s="9">
+        <f>E43+E44-E45</f>
+        <v/>
+      </c>
+      <c r="F46" s="9">
+        <f>F43+F44-F45</f>
+        <v/>
+      </c>
+      <c r="G46" s="9">
+        <f>G43+G44-G45</f>
+        <v/>
+      </c>
+      <c r="H46" s="9">
+        <f>H43+H44-H45</f>
+        <v/>
+      </c>
+      <c r="I46" s="9">
+        <f>I43+I44-I45</f>
+        <v/>
+      </c>
+      <c r="J46" s="9">
+        <f>J43+J44-J45</f>
+        <v/>
+      </c>
+      <c r="K46" s="9">
+        <f>K43+K44-K45</f>
+        <v/>
+      </c>
+      <c r="L46" s="9">
+        <f>L43+L44-L45</f>
+        <v/>
+      </c>
+      <c r="M46" s="9">
+        <f>M43+M44-M45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>ACCRUED EXPENSES CONTROL</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Opening Deferred Revenue</t>
+          <t>Opening Accrued Expenses</t>
         </is>
       </c>
       <c r="B50" s="5">
-        <f>Inputs!$B$49</f>
+        <f>Inputs!$B$48</f>
         <v/>
       </c>
       <c r="C50" s="5">
@@ -3279,66 +2943,66 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cash Received in Advance</t>
+          <t>Accruals (Expense Recognition)</t>
         </is>
       </c>
       <c r="B51" s="5">
-        <f>Inputs!$C$6*0.1</f>
+        <f>Inputs!$B$11*0.5</f>
         <v/>
       </c>
       <c r="C51" s="5">
-        <f>Inputs!$D$6*0.1</f>
+        <f>Inputs!$C$11*0.5</f>
         <v/>
       </c>
       <c r="D51" s="5">
-        <f>Inputs!$E$6*0.1</f>
+        <f>Inputs!$D$11*0.5</f>
         <v/>
       </c>
       <c r="E51" s="5">
-        <f>Inputs!$F$6*0.1</f>
+        <f>Inputs!$E$11*0.5</f>
         <v/>
       </c>
       <c r="F51" s="5">
-        <f>Inputs!$G$6*0.1</f>
+        <f>Inputs!$F$11*0.5</f>
         <v/>
       </c>
       <c r="G51" s="5">
-        <f>Inputs!$H$6*0.1</f>
+        <f>Inputs!$G$11*0.5</f>
         <v/>
       </c>
       <c r="H51" s="5">
-        <f>Inputs!$I$6*0.1</f>
+        <f>Inputs!$H$11*0.5</f>
         <v/>
       </c>
       <c r="I51" s="5">
-        <f>Inputs!$J$6*0.1</f>
+        <f>Inputs!$I$11*0.5</f>
         <v/>
       </c>
       <c r="J51" s="5">
-        <f>Inputs!$K$6*0.1</f>
+        <f>Inputs!$J$11*0.5</f>
         <v/>
       </c>
       <c r="K51" s="5">
-        <f>Inputs!$L$6*0.1</f>
+        <f>Inputs!$K$11*0.5</f>
         <v/>
       </c>
       <c r="L51" s="5">
-        <f>Inputs!$M$6*0.1</f>
-        <v/>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
+        <f>Inputs!$L$11*0.5</f>
+        <v/>
+      </c>
+      <c r="M51" s="5">
+        <f>Inputs!$M$11*0.5</f>
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Revenue Recognition</t>
-        </is>
-      </c>
-      <c r="B52" s="5">
-        <f>B50</f>
-        <v/>
+          <t>Cash Payments</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="C52" s="5">
         <f>B51</f>
@@ -3388,337 +3052,563 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Closing Deferred Revenue</t>
-        </is>
-      </c>
-      <c r="B53" s="10">
+          <t>Closing Accrued Expenses</t>
+        </is>
+      </c>
+      <c r="B53" s="9">
         <f>B50+B51-B52</f>
         <v/>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <f>C50+C51-C52</f>
         <v/>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <f>D50+D51-D52</f>
         <v/>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <f>E50+E51-E52</f>
         <v/>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <f>F50+F51-F52</f>
         <v/>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <f>G50+G51-G52</f>
         <v/>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <f>H50+H51-H52</f>
         <v/>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <f>I50+I51-I52</f>
         <v/>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="9">
         <f>J50+J51-J52</f>
         <v/>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="9">
         <f>K50+K51-K52</f>
         <v/>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="9">
         <f>L50+L51-L52</f>
         <v/>
       </c>
-      <c r="M53" s="10">
+      <c r="M53" s="9">
         <f>M50+M51-M52</f>
         <v/>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="inlineStr">
-        <is>
-          <t>DEBT CONTROL</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Opening Debt</t>
-        </is>
-      </c>
-      <c r="B56" s="5">
-        <f>Inputs!$B$50</f>
-        <v/>
-      </c>
-      <c r="C56" s="5">
-        <f>B59</f>
-        <v/>
-      </c>
-      <c r="D56" s="5">
-        <f>C59</f>
-        <v/>
-      </c>
-      <c r="E56" s="5">
-        <f>D59</f>
-        <v/>
-      </c>
-      <c r="F56" s="5">
-        <f>E59</f>
-        <v/>
-      </c>
-      <c r="G56" s="5">
-        <f>F59</f>
-        <v/>
-      </c>
-      <c r="H56" s="5">
-        <f>G59</f>
-        <v/>
-      </c>
-      <c r="I56" s="5">
-        <f>H59</f>
-        <v/>
-      </c>
-      <c r="J56" s="5">
-        <f>I59</f>
-        <v/>
-      </c>
-      <c r="K56" s="5">
-        <f>J59</f>
-        <v/>
-      </c>
-      <c r="L56" s="5">
-        <f>K59</f>
-        <v/>
-      </c>
-      <c r="M56" s="5">
-        <f>L59</f>
-        <v/>
+      <c r="A55" s="11" t="inlineStr">
+        <is>
+          <t>DEFERRED REVENUE CONTROL</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Debt Drawdowns</t>
+          <t>Opening Deferred Revenue</t>
         </is>
       </c>
       <c r="B57" s="5">
-        <f>Inputs!$B$30</f>
+        <f>Inputs!$B$49</f>
         <v/>
       </c>
       <c r="C57" s="5">
-        <f>Inputs!$C$30</f>
+        <f>B60</f>
         <v/>
       </c>
       <c r="D57" s="5">
-        <f>Inputs!$D$30</f>
+        <f>C60</f>
         <v/>
       </c>
       <c r="E57" s="5">
-        <f>Inputs!$E$30</f>
+        <f>D60</f>
         <v/>
       </c>
       <c r="F57" s="5">
-        <f>Inputs!$F$30</f>
+        <f>E60</f>
         <v/>
       </c>
       <c r="G57" s="5">
-        <f>Inputs!$G$30</f>
+        <f>F60</f>
         <v/>
       </c>
       <c r="H57" s="5">
-        <f>Inputs!$H$30</f>
+        <f>G60</f>
         <v/>
       </c>
       <c r="I57" s="5">
-        <f>Inputs!$I$30</f>
+        <f>H60</f>
         <v/>
       </c>
       <c r="J57" s="5">
-        <f>Inputs!$J$30</f>
+        <f>I60</f>
         <v/>
       </c>
       <c r="K57" s="5">
-        <f>Inputs!$K$30</f>
+        <f>J60</f>
         <v/>
       </c>
       <c r="L57" s="5">
-        <f>Inputs!$L$30</f>
+        <f>K60</f>
         <v/>
       </c>
       <c r="M57" s="5">
-        <f>Inputs!$M$30</f>
+        <f>L60</f>
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Debt Repayments</t>
+          <t>Cash Received in Advance</t>
         </is>
       </c>
       <c r="B58" s="5">
-        <f>Inputs!$B$31</f>
+        <f>Inputs!$C$6*0.1</f>
         <v/>
       </c>
       <c r="C58" s="5">
-        <f>Inputs!$C$31</f>
+        <f>Inputs!$D$6*0.1</f>
         <v/>
       </c>
       <c r="D58" s="5">
-        <f>Inputs!$D$31</f>
+        <f>Inputs!$E$6*0.1</f>
         <v/>
       </c>
       <c r="E58" s="5">
-        <f>Inputs!$E$31</f>
+        <f>Inputs!$F$6*0.1</f>
         <v/>
       </c>
       <c r="F58" s="5">
-        <f>Inputs!$F$31</f>
+        <f>Inputs!$G$6*0.1</f>
         <v/>
       </c>
       <c r="G58" s="5">
-        <f>Inputs!$G$31</f>
+        <f>Inputs!$H$6*0.1</f>
         <v/>
       </c>
       <c r="H58" s="5">
-        <f>Inputs!$H$31</f>
+        <f>Inputs!$I$6*0.1</f>
         <v/>
       </c>
       <c r="I58" s="5">
-        <f>Inputs!$I$31</f>
+        <f>Inputs!$J$6*0.1</f>
         <v/>
       </c>
       <c r="J58" s="5">
-        <f>Inputs!$J$31</f>
+        <f>Inputs!$K$6*0.1</f>
         <v/>
       </c>
       <c r="K58" s="5">
-        <f>Inputs!$K$31</f>
+        <f>Inputs!$L$6*0.1</f>
         <v/>
       </c>
       <c r="L58" s="5">
-        <f>Inputs!$L$31</f>
-        <v/>
-      </c>
-      <c r="M58" s="5">
-        <f>Inputs!$M$31</f>
-        <v/>
+        <f>Inputs!$M$6*0.1</f>
+        <v/>
+      </c>
+      <c r="M58" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>Revenue Recognition</t>
+        </is>
+      </c>
+      <c r="B59" s="5">
+        <f>B57</f>
+        <v/>
+      </c>
+      <c r="C59" s="5">
+        <f>B58</f>
+        <v/>
+      </c>
+      <c r="D59" s="5">
+        <f>C58</f>
+        <v/>
+      </c>
+      <c r="E59" s="5">
+        <f>D58</f>
+        <v/>
+      </c>
+      <c r="F59" s="5">
+        <f>E58</f>
+        <v/>
+      </c>
+      <c r="G59" s="5">
+        <f>F58</f>
+        <v/>
+      </c>
+      <c r="H59" s="5">
+        <f>G58</f>
+        <v/>
+      </c>
+      <c r="I59" s="5">
+        <f>H58</f>
+        <v/>
+      </c>
+      <c r="J59" s="5">
+        <f>I58</f>
+        <v/>
+      </c>
+      <c r="K59" s="5">
+        <f>J58</f>
+        <v/>
+      </c>
+      <c r="L59" s="5">
+        <f>K58</f>
+        <v/>
+      </c>
+      <c r="M59" s="5">
+        <f>L58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Closing Deferred Revenue</t>
+        </is>
+      </c>
+      <c r="B60" s="9">
+        <f>B57+B58-B59</f>
+        <v/>
+      </c>
+      <c r="C60" s="9">
+        <f>C57+C58-C59</f>
+        <v/>
+      </c>
+      <c r="D60" s="9">
+        <f>D57+D58-D59</f>
+        <v/>
+      </c>
+      <c r="E60" s="9">
+        <f>E57+E58-E59</f>
+        <v/>
+      </c>
+      <c r="F60" s="9">
+        <f>F57+F58-F59</f>
+        <v/>
+      </c>
+      <c r="G60" s="9">
+        <f>G57+G58-G59</f>
+        <v/>
+      </c>
+      <c r="H60" s="9">
+        <f>H57+H58-H59</f>
+        <v/>
+      </c>
+      <c r="I60" s="9">
+        <f>I57+I58-I59</f>
+        <v/>
+      </c>
+      <c r="J60" s="9">
+        <f>J57+J58-J59</f>
+        <v/>
+      </c>
+      <c r="K60" s="9">
+        <f>K57+K58-K59</f>
+        <v/>
+      </c>
+      <c r="L60" s="9">
+        <f>L57+L58-L59</f>
+        <v/>
+      </c>
+      <c r="M60" s="9">
+        <f>M57+M58-M59</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>DEBT CONTROL</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Opening Debt</t>
+        </is>
+      </c>
+      <c r="B64" s="5">
+        <f>Inputs!$B$50</f>
+        <v/>
+      </c>
+      <c r="C64" s="5">
+        <f>B67</f>
+        <v/>
+      </c>
+      <c r="D64" s="5">
+        <f>C67</f>
+        <v/>
+      </c>
+      <c r="E64" s="5">
+        <f>D67</f>
+        <v/>
+      </c>
+      <c r="F64" s="5">
+        <f>E67</f>
+        <v/>
+      </c>
+      <c r="G64" s="5">
+        <f>F67</f>
+        <v/>
+      </c>
+      <c r="H64" s="5">
+        <f>G67</f>
+        <v/>
+      </c>
+      <c r="I64" s="5">
+        <f>H67</f>
+        <v/>
+      </c>
+      <c r="J64" s="5">
+        <f>I67</f>
+        <v/>
+      </c>
+      <c r="K64" s="5">
+        <f>J67</f>
+        <v/>
+      </c>
+      <c r="L64" s="5">
+        <f>K67</f>
+        <v/>
+      </c>
+      <c r="M64" s="5">
+        <f>L67</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Debt Drawdowns</t>
+        </is>
+      </c>
+      <c r="B65" s="5">
+        <f>Inputs!$B$30</f>
+        <v/>
+      </c>
+      <c r="C65" s="5">
+        <f>Inputs!$C$30</f>
+        <v/>
+      </c>
+      <c r="D65" s="5">
+        <f>Inputs!$D$30</f>
+        <v/>
+      </c>
+      <c r="E65" s="5">
+        <f>Inputs!$E$30</f>
+        <v/>
+      </c>
+      <c r="F65" s="5">
+        <f>Inputs!$F$30</f>
+        <v/>
+      </c>
+      <c r="G65" s="5">
+        <f>Inputs!$G$30</f>
+        <v/>
+      </c>
+      <c r="H65" s="5">
+        <f>Inputs!$H$30</f>
+        <v/>
+      </c>
+      <c r="I65" s="5">
+        <f>Inputs!$I$30</f>
+        <v/>
+      </c>
+      <c r="J65" s="5">
+        <f>Inputs!$J$30</f>
+        <v/>
+      </c>
+      <c r="K65" s="5">
+        <f>Inputs!$K$30</f>
+        <v/>
+      </c>
+      <c r="L65" s="5">
+        <f>Inputs!$L$30</f>
+        <v/>
+      </c>
+      <c r="M65" s="5">
+        <f>Inputs!$M$30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Debt Repayments</t>
+        </is>
+      </c>
+      <c r="B66" s="5">
+        <f>Inputs!$B$31</f>
+        <v/>
+      </c>
+      <c r="C66" s="5">
+        <f>Inputs!$C$31</f>
+        <v/>
+      </c>
+      <c r="D66" s="5">
+        <f>Inputs!$D$31</f>
+        <v/>
+      </c>
+      <c r="E66" s="5">
+        <f>Inputs!$E$31</f>
+        <v/>
+      </c>
+      <c r="F66" s="5">
+        <f>Inputs!$F$31</f>
+        <v/>
+      </c>
+      <c r="G66" s="5">
+        <f>Inputs!$G$31</f>
+        <v/>
+      </c>
+      <c r="H66" s="5">
+        <f>Inputs!$H$31</f>
+        <v/>
+      </c>
+      <c r="I66" s="5">
+        <f>Inputs!$I$31</f>
+        <v/>
+      </c>
+      <c r="J66" s="5">
+        <f>Inputs!$J$31</f>
+        <v/>
+      </c>
+      <c r="K66" s="5">
+        <f>Inputs!$K$31</f>
+        <v/>
+      </c>
+      <c r="L66" s="5">
+        <f>Inputs!$L$31</f>
+        <v/>
+      </c>
+      <c r="M66" s="5">
+        <f>Inputs!$M$31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>Closing Debt</t>
         </is>
       </c>
-      <c r="B59" s="10">
-        <f>B56+B57-B58</f>
-        <v/>
-      </c>
-      <c r="C59" s="10">
-        <f>C56+C57-C58</f>
-        <v/>
-      </c>
-      <c r="D59" s="10">
-        <f>D56+D57-D58</f>
-        <v/>
-      </c>
-      <c r="E59" s="10">
-        <f>E56+E57-E58</f>
-        <v/>
-      </c>
-      <c r="F59" s="10">
-        <f>F56+F57-F58</f>
-        <v/>
-      </c>
-      <c r="G59" s="10">
-        <f>G56+G57-G58</f>
-        <v/>
-      </c>
-      <c r="H59" s="10">
-        <f>H56+H57-H58</f>
-        <v/>
-      </c>
-      <c r="I59" s="10">
-        <f>I56+I57-I58</f>
-        <v/>
-      </c>
-      <c r="J59" s="10">
-        <f>J56+J57-J58</f>
-        <v/>
-      </c>
-      <c r="K59" s="10">
-        <f>K56+K57-K58</f>
-        <v/>
-      </c>
-      <c r="L59" s="10">
-        <f>L56+L57-L58</f>
-        <v/>
-      </c>
-      <c r="M59" s="10">
-        <f>M56+M57-M58</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="B67" s="9">
+        <f>B64+B65-B66</f>
+        <v/>
+      </c>
+      <c r="C67" s="9">
+        <f>C64+C65-C66</f>
+        <v/>
+      </c>
+      <c r="D67" s="9">
+        <f>D64+D65-D66</f>
+        <v/>
+      </c>
+      <c r="E67" s="9">
+        <f>E64+E65-E66</f>
+        <v/>
+      </c>
+      <c r="F67" s="9">
+        <f>F64+F65-F66</f>
+        <v/>
+      </c>
+      <c r="G67" s="9">
+        <f>G64+G65-G66</f>
+        <v/>
+      </c>
+      <c r="H67" s="9">
+        <f>H64+H65-H66</f>
+        <v/>
+      </c>
+      <c r="I67" s="9">
+        <f>I64+I65-I66</f>
+        <v/>
+      </c>
+      <c r="J67" s="9">
+        <f>J64+J65-J66</f>
+        <v/>
+      </c>
+      <c r="K67" s="9">
+        <f>K64+K65-K66</f>
+        <v/>
+      </c>
+      <c r="L67" s="9">
+        <f>L64+L65-L66</f>
+        <v/>
+      </c>
+      <c r="M67" s="9">
+        <f>M64+M65-M66</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Interest Expense</t>
         </is>
       </c>
-      <c r="B61" s="13">
-        <f>B56*Inputs!$B$32/12</f>
-        <v/>
-      </c>
-      <c r="C61" s="13">
-        <f>C56*Inputs!$C$32/12</f>
-        <v/>
-      </c>
-      <c r="D61" s="13">
-        <f>D56*Inputs!$D$32/12</f>
-        <v/>
-      </c>
-      <c r="E61" s="13">
-        <f>E56*Inputs!$E$32/12</f>
-        <v/>
-      </c>
-      <c r="F61" s="13">
-        <f>F56*Inputs!$F$32/12</f>
-        <v/>
-      </c>
-      <c r="G61" s="13">
-        <f>G56*Inputs!$G$32/12</f>
-        <v/>
-      </c>
-      <c r="H61" s="13">
-        <f>H56*Inputs!$H$32/12</f>
-        <v/>
-      </c>
-      <c r="I61" s="13">
-        <f>I56*Inputs!$I$32/12</f>
-        <v/>
-      </c>
-      <c r="J61" s="13">
-        <f>J56*Inputs!$J$32/12</f>
-        <v/>
-      </c>
-      <c r="K61" s="13">
-        <f>K56*Inputs!$K$32/12</f>
-        <v/>
-      </c>
-      <c r="L61" s="13">
-        <f>L56*Inputs!$L$32/12</f>
-        <v/>
-      </c>
-      <c r="M61" s="13">
-        <f>M56*Inputs!$M$32/12</f>
+      <c r="B69" s="12">
+        <f>B64*Inputs!$B$32/12</f>
+        <v/>
+      </c>
+      <c r="C69" s="12">
+        <f>C64*Inputs!$C$32/12</f>
+        <v/>
+      </c>
+      <c r="D69" s="12">
+        <f>D64*Inputs!$D$32/12</f>
+        <v/>
+      </c>
+      <c r="E69" s="12">
+        <f>E64*Inputs!$E$32/12</f>
+        <v/>
+      </c>
+      <c r="F69" s="12">
+        <f>F64*Inputs!$F$32/12</f>
+        <v/>
+      </c>
+      <c r="G69" s="12">
+        <f>G64*Inputs!$G$32/12</f>
+        <v/>
+      </c>
+      <c r="H69" s="12">
+        <f>H64*Inputs!$H$32/12</f>
+        <v/>
+      </c>
+      <c r="I69" s="12">
+        <f>I64*Inputs!$I$32/12</f>
+        <v/>
+      </c>
+      <c r="J69" s="12">
+        <f>J64*Inputs!$J$32/12</f>
+        <v/>
+      </c>
+      <c r="K69" s="12">
+        <f>K64*Inputs!$K$32/12</f>
+        <v/>
+      </c>
+      <c r="L69" s="12">
+        <f>L64*Inputs!$L$32/12</f>
+        <v/>
+      </c>
+      <c r="M69" s="12">
+        <f>M64*Inputs!$M$32/12</f>
         <v/>
       </c>
     </row>
@@ -3892,51 +3782,51 @@
         </is>
       </c>
       <c r="B6" s="5">
-        <f>-Workings!$B$16</f>
+        <f>-Workings!$B$15</f>
         <v/>
       </c>
       <c r="C6" s="5">
-        <f>-Workings!$C$16</f>
+        <f>-Workings!$C$15</f>
         <v/>
       </c>
       <c r="D6" s="5">
-        <f>-Workings!$D$16</f>
+        <f>-Workings!$D$15</f>
         <v/>
       </c>
       <c r="E6" s="5">
-        <f>-Workings!$E$16</f>
+        <f>-Workings!$E$15</f>
         <v/>
       </c>
       <c r="F6" s="5">
-        <f>-Workings!$F$16</f>
+        <f>-Workings!$F$15</f>
         <v/>
       </c>
       <c r="G6" s="5">
-        <f>-Workings!$G$16</f>
+        <f>-Workings!$G$15</f>
         <v/>
       </c>
       <c r="H6" s="5">
-        <f>-Workings!$H$16</f>
+        <f>-Workings!$H$15</f>
         <v/>
       </c>
       <c r="I6" s="5">
-        <f>-Workings!$I$16</f>
+        <f>-Workings!$I$15</f>
         <v/>
       </c>
       <c r="J6" s="5">
-        <f>-Workings!$J$16</f>
+        <f>-Workings!$J$15</f>
         <v/>
       </c>
       <c r="K6" s="5">
-        <f>-Workings!$K$16</f>
+        <f>-Workings!$K$15</f>
         <v/>
       </c>
       <c r="L6" s="5">
-        <f>-Workings!$L$16</f>
+        <f>-Workings!$L$15</f>
         <v/>
       </c>
       <c r="M6" s="5">
-        <f>-Workings!$M$16</f>
+        <f>-Workings!$M$15</f>
         <v/>
       </c>
     </row>
@@ -3946,51 +3836,51 @@
           <t>Gross Profit</t>
         </is>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>B5+B6</f>
         <v/>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f>C5+C6</f>
         <v/>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f>D5+D6</f>
         <v/>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f>E5+E6</f>
         <v/>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f>F5+F6</f>
         <v/>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>G5+G6</f>
         <v/>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f>H5+H6</f>
         <v/>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f>I5+I6</f>
         <v/>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f>J5+J6</f>
         <v/>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <f>K5+K6</f>
         <v/>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>L5+L6</f>
         <v/>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <f>M5+M6</f>
         <v/>
       </c>
@@ -4064,51 +3954,51 @@
         </is>
       </c>
       <c r="B11" s="5">
-        <f>-Inputs!$B$12*0.5</f>
+        <f>-Inputs!$B$11*0.5</f>
         <v/>
       </c>
       <c r="C11" s="5">
-        <f>-Inputs!$C$12*0.5</f>
+        <f>-Inputs!$C$11*0.5</f>
         <v/>
       </c>
       <c r="D11" s="5">
-        <f>-Inputs!$D$12*0.5</f>
+        <f>-Inputs!$D$11*0.5</f>
         <v/>
       </c>
       <c r="E11" s="5">
-        <f>-Inputs!$E$12*0.5</f>
+        <f>-Inputs!$E$11*0.5</f>
         <v/>
       </c>
       <c r="F11" s="5">
-        <f>-Inputs!$F$12*0.5</f>
+        <f>-Inputs!$F$11*0.5</f>
         <v/>
       </c>
       <c r="G11" s="5">
-        <f>-Inputs!$G$12*0.5</f>
+        <f>-Inputs!$G$11*0.5</f>
         <v/>
       </c>
       <c r="H11" s="5">
-        <f>-Inputs!$H$12*0.5</f>
+        <f>-Inputs!$H$11*0.5</f>
         <v/>
       </c>
       <c r="I11" s="5">
-        <f>-Inputs!$I$12*0.5</f>
+        <f>-Inputs!$I$11*0.5</f>
         <v/>
       </c>
       <c r="J11" s="5">
-        <f>-Inputs!$J$12*0.5</f>
+        <f>-Inputs!$J$11*0.5</f>
         <v/>
       </c>
       <c r="K11" s="5">
-        <f>-Inputs!$K$12*0.5</f>
+        <f>-Inputs!$K$11*0.5</f>
         <v/>
       </c>
       <c r="L11" s="5">
-        <f>-Inputs!$L$12*0.5</f>
+        <f>-Inputs!$L$11*0.5</f>
         <v/>
       </c>
       <c r="M11" s="5">
-        <f>-Inputs!$M$12*0.5</f>
+        <f>-Inputs!$M$11*0.5</f>
         <v/>
       </c>
     </row>
@@ -4119,51 +4009,51 @@
         </is>
       </c>
       <c r="B12" s="5">
-        <f>-Inputs!$B$12*0.5</f>
+        <f>-Inputs!$B$11*0.5</f>
         <v/>
       </c>
       <c r="C12" s="5">
-        <f>-Inputs!$C$12*0.5</f>
+        <f>-Inputs!$C$11*0.5</f>
         <v/>
       </c>
       <c r="D12" s="5">
-        <f>-Inputs!$D$12*0.5</f>
+        <f>-Inputs!$D$11*0.5</f>
         <v/>
       </c>
       <c r="E12" s="5">
-        <f>-Inputs!$E$12*0.5</f>
+        <f>-Inputs!$E$11*0.5</f>
         <v/>
       </c>
       <c r="F12" s="5">
-        <f>-Inputs!$F$12*0.5</f>
+        <f>-Inputs!$F$11*0.5</f>
         <v/>
       </c>
       <c r="G12" s="5">
-        <f>-Inputs!$G$12*0.5</f>
+        <f>-Inputs!$G$11*0.5</f>
         <v/>
       </c>
       <c r="H12" s="5">
-        <f>-Inputs!$H$12*0.5</f>
+        <f>-Inputs!$H$11*0.5</f>
         <v/>
       </c>
       <c r="I12" s="5">
-        <f>-Inputs!$I$12*0.5</f>
+        <f>-Inputs!$I$11*0.5</f>
         <v/>
       </c>
       <c r="J12" s="5">
-        <f>-Inputs!$J$12*0.5</f>
+        <f>-Inputs!$J$11*0.5</f>
         <v/>
       </c>
       <c r="K12" s="5">
-        <f>-Inputs!$K$12*0.5</f>
+        <f>-Inputs!$K$11*0.5</f>
         <v/>
       </c>
       <c r="L12" s="5">
-        <f>-Inputs!$L$12*0.5</f>
+        <f>-Inputs!$L$11*0.5</f>
         <v/>
       </c>
       <c r="M12" s="5">
-        <f>-Inputs!$M$12*0.5</f>
+        <f>-Inputs!$M$11*0.5</f>
         <v/>
       </c>
     </row>
@@ -4174,51 +4064,51 @@
         </is>
       </c>
       <c r="B13" s="5">
-        <f>-Workings!$B$24</f>
+        <f>-Workings!$B$22</f>
         <v/>
       </c>
       <c r="C13" s="5">
-        <f>-Workings!$C$24</f>
+        <f>-Workings!$C$22</f>
         <v/>
       </c>
       <c r="D13" s="5">
-        <f>-Workings!$D$24</f>
+        <f>-Workings!$D$22</f>
         <v/>
       </c>
       <c r="E13" s="5">
-        <f>-Workings!$E$24</f>
+        <f>-Workings!$E$22</f>
         <v/>
       </c>
       <c r="F13" s="5">
-        <f>-Workings!$F$24</f>
+        <f>-Workings!$F$22</f>
         <v/>
       </c>
       <c r="G13" s="5">
-        <f>-Workings!$G$24</f>
+        <f>-Workings!$G$22</f>
         <v/>
       </c>
       <c r="H13" s="5">
-        <f>-Workings!$H$24</f>
+        <f>-Workings!$H$22</f>
         <v/>
       </c>
       <c r="I13" s="5">
-        <f>-Workings!$I$24</f>
+        <f>-Workings!$I$22</f>
         <v/>
       </c>
       <c r="J13" s="5">
-        <f>-Workings!$J$24</f>
+        <f>-Workings!$J$22</f>
         <v/>
       </c>
       <c r="K13" s="5">
-        <f>-Workings!$K$24</f>
+        <f>-Workings!$K$22</f>
         <v/>
       </c>
       <c r="L13" s="5">
-        <f>-Workings!$L$24</f>
+        <f>-Workings!$L$22</f>
         <v/>
       </c>
       <c r="M13" s="5">
-        <f>-Workings!$M$24</f>
+        <f>-Workings!$M$22</f>
         <v/>
       </c>
     </row>
@@ -4228,51 +4118,51 @@
           <t>Total Operating Expenses</t>
         </is>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <f>SUM(B11:B13)</f>
         <v/>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <f>SUM(C11:C13)</f>
         <v/>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <f>SUM(D11:D13)</f>
         <v/>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <f>SUM(E11:E13)</f>
         <v/>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <f>SUM(F11:F13)</f>
         <v/>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <f>SUM(G11:G13)</f>
         <v/>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f>SUM(H11:H13)</f>
         <v/>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f>SUM(I11:I13)</f>
         <v/>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f>SUM(J11:J13)</f>
         <v/>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f>SUM(K11:K13)</f>
         <v/>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f>SUM(L11:L13)</f>
         <v/>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v/>
       </c>
@@ -4283,51 +4173,51 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <f>B7+B14</f>
         <v/>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <f>C7+C14</f>
         <v/>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <f>D7+D14</f>
         <v/>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <f>E7+E14</f>
         <v/>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f>F7+F14</f>
         <v/>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <f>G7+G14</f>
         <v/>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <f>H7+H14</f>
         <v/>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <f>I7+I14</f>
         <v/>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <f>J7+J14</f>
         <v/>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <f>K7+K14</f>
         <v/>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <f>L7+L14</f>
         <v/>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <f>M7+M14</f>
         <v/>
       </c>
@@ -4339,51 +4229,51 @@
         </is>
       </c>
       <c r="B17" s="5">
-        <f>-Workings!$B$37</f>
+        <f>-Workings!$B$35</f>
         <v/>
       </c>
       <c r="C17" s="5">
-        <f>-Workings!$C$37</f>
+        <f>-Workings!$C$35</f>
         <v/>
       </c>
       <c r="D17" s="5">
-        <f>-Workings!$D$37</f>
+        <f>-Workings!$D$35</f>
         <v/>
       </c>
       <c r="E17" s="5">
-        <f>-Workings!$E$37</f>
+        <f>-Workings!$E$35</f>
         <v/>
       </c>
       <c r="F17" s="5">
-        <f>-Workings!$F$37</f>
+        <f>-Workings!$F$35</f>
         <v/>
       </c>
       <c r="G17" s="5">
-        <f>-Workings!$G$37</f>
+        <f>-Workings!$G$35</f>
         <v/>
       </c>
       <c r="H17" s="5">
-        <f>-Workings!$H$37</f>
+        <f>-Workings!$H$35</f>
         <v/>
       </c>
       <c r="I17" s="5">
-        <f>-Workings!$I$37</f>
+        <f>-Workings!$I$35</f>
         <v/>
       </c>
       <c r="J17" s="5">
-        <f>-Workings!$J$37</f>
+        <f>-Workings!$J$35</f>
         <v/>
       </c>
       <c r="K17" s="5">
-        <f>-Workings!$K$37</f>
+        <f>-Workings!$K$35</f>
         <v/>
       </c>
       <c r="L17" s="5">
-        <f>-Workings!$L$37</f>
+        <f>-Workings!$L$35</f>
         <v/>
       </c>
       <c r="M17" s="5">
-        <f>-Workings!$M$37</f>
+        <f>-Workings!$M$35</f>
         <v/>
       </c>
     </row>
@@ -4393,51 +4283,51 @@
           <t>EBIT</t>
         </is>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <f>B16+B17</f>
         <v/>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <f>C16+C17</f>
         <v/>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f>D16+D17</f>
         <v/>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <f>E16+E17</f>
         <v/>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f>F16+F17</f>
         <v/>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <f>G16+G17</f>
         <v/>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <f>H16+H17</f>
         <v/>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <f>I16+I17</f>
         <v/>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <f>J16+J17</f>
         <v/>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <f>K16+K17</f>
         <v/>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <f>L16+L17</f>
         <v/>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <f>M16+M17</f>
         <v/>
       </c>
@@ -4449,51 +4339,51 @@
         </is>
       </c>
       <c r="B20" s="5">
-        <f>-Workings!$B$60</f>
+        <f>-Workings!$B$69</f>
         <v/>
       </c>
       <c r="C20" s="5">
-        <f>-Workings!$C$60</f>
+        <f>-Workings!$C$69</f>
         <v/>
       </c>
       <c r="D20" s="5">
-        <f>-Workings!$D$60</f>
+        <f>-Workings!$D$69</f>
         <v/>
       </c>
       <c r="E20" s="5">
-        <f>-Workings!$E$60</f>
+        <f>-Workings!$E$69</f>
         <v/>
       </c>
       <c r="F20" s="5">
-        <f>-Workings!$F$60</f>
+        <f>-Workings!$F$69</f>
         <v/>
       </c>
       <c r="G20" s="5">
-        <f>-Workings!$G$60</f>
+        <f>-Workings!$G$69</f>
         <v/>
       </c>
       <c r="H20" s="5">
-        <f>-Workings!$H$60</f>
+        <f>-Workings!$H$69</f>
         <v/>
       </c>
       <c r="I20" s="5">
-        <f>-Workings!$I$60</f>
+        <f>-Workings!$I$69</f>
         <v/>
       </c>
       <c r="J20" s="5">
-        <f>-Workings!$J$60</f>
+        <f>-Workings!$J$69</f>
         <v/>
       </c>
       <c r="K20" s="5">
-        <f>-Workings!$K$60</f>
+        <f>-Workings!$K$69</f>
         <v/>
       </c>
       <c r="L20" s="5">
-        <f>-Workings!$L$60</f>
+        <f>-Workings!$L$69</f>
         <v/>
       </c>
       <c r="M20" s="5">
-        <f>-Workings!$M$60</f>
+        <f>-Workings!$M$69</f>
         <v/>
       </c>
     </row>
@@ -4503,51 +4393,51 @@
           <t>Earnings Before Tax</t>
         </is>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <f>B18+B20</f>
         <v/>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <f>C18+C20</f>
         <v/>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <f>D18+D20</f>
         <v/>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <f>E18+E20</f>
         <v/>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <f>F18+F20</f>
         <v/>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <f>G18+G20</f>
         <v/>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <f>H18+H20</f>
         <v/>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f>I18+I20</f>
         <v/>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f>J18+J20</f>
         <v/>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <f>K18+K20</f>
         <v/>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <f>L18+L20</f>
         <v/>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <f>M18+M20</f>
         <v/>
       </c>
@@ -4613,51 +4503,51 @@
           <t>Net Income</t>
         </is>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <f>B21+B22</f>
         <v/>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <f>C21+C22</f>
         <v/>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <f>D21+D22</f>
         <v/>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <f>E21+E22</f>
         <v/>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <f>F21+F22</f>
         <v/>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <f>G21+G22</f>
         <v/>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <f>H21+H22</f>
         <v/>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <f>I21+I22</f>
         <v/>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <f>J21+J22</f>
         <v/>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <f>K21+K22</f>
         <v/>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <f>L21+L22</f>
         <v/>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="13">
         <f>M21+M22</f>
         <v/>
       </c>
@@ -4771,7 +4661,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>ASSETS</t>
         </is>
@@ -4791,51 +4681,51 @@
         </is>
       </c>
       <c r="B7" s="5">
-        <f>'Cash Flow Statement'!$B$34</f>
+        <f>'Cash Flow Statement'!$B$32</f>
         <v/>
       </c>
       <c r="C7" s="5">
-        <f>'Cash Flow Statement'!$C$34</f>
+        <f>'Cash Flow Statement'!$C$32</f>
         <v/>
       </c>
       <c r="D7" s="5">
-        <f>'Cash Flow Statement'!$D$34</f>
+        <f>'Cash Flow Statement'!$D$32</f>
         <v/>
       </c>
       <c r="E7" s="5">
-        <f>'Cash Flow Statement'!$E$34</f>
+        <f>'Cash Flow Statement'!$E$32</f>
         <v/>
       </c>
       <c r="F7" s="5">
-        <f>'Cash Flow Statement'!$F$34</f>
+        <f>'Cash Flow Statement'!$F$32</f>
         <v/>
       </c>
       <c r="G7" s="5">
-        <f>'Cash Flow Statement'!$G$34</f>
+        <f>'Cash Flow Statement'!$G$32</f>
         <v/>
       </c>
       <c r="H7" s="5">
-        <f>'Cash Flow Statement'!$H$34</f>
+        <f>'Cash Flow Statement'!$H$32</f>
         <v/>
       </c>
       <c r="I7" s="5">
-        <f>'Cash Flow Statement'!$I$34</f>
+        <f>'Cash Flow Statement'!$I$32</f>
         <v/>
       </c>
       <c r="J7" s="5">
-        <f>'Cash Flow Statement'!$J$34</f>
+        <f>'Cash Flow Statement'!$J$32</f>
         <v/>
       </c>
       <c r="K7" s="5">
-        <f>'Cash Flow Statement'!$K$34</f>
+        <f>'Cash Flow Statement'!$K$32</f>
         <v/>
       </c>
       <c r="L7" s="5">
-        <f>'Cash Flow Statement'!$L$34</f>
+        <f>'Cash Flow Statement'!$L$32</f>
         <v/>
       </c>
       <c r="M7" s="5">
-        <f>'Cash Flow Statement'!$M$34</f>
+        <f>'Cash Flow Statement'!$M$32</f>
         <v/>
       </c>
     </row>
@@ -4901,51 +4791,51 @@
         </is>
       </c>
       <c r="B9" s="5">
-        <f>Workings!$B$17</f>
+        <f>Workings!$B$16</f>
         <v/>
       </c>
       <c r="C9" s="5">
-        <f>Workings!$C$17</f>
+        <f>Workings!$C$16</f>
         <v/>
       </c>
       <c r="D9" s="5">
-        <f>Workings!$D$17</f>
+        <f>Workings!$D$16</f>
         <v/>
       </c>
       <c r="E9" s="5">
-        <f>Workings!$E$17</f>
+        <f>Workings!$E$16</f>
         <v/>
       </c>
       <c r="F9" s="5">
-        <f>Workings!$F$17</f>
+        <f>Workings!$F$16</f>
         <v/>
       </c>
       <c r="G9" s="5">
-        <f>Workings!$G$17</f>
+        <f>Workings!$G$16</f>
         <v/>
       </c>
       <c r="H9" s="5">
-        <f>Workings!$H$17</f>
+        <f>Workings!$H$16</f>
         <v/>
       </c>
       <c r="I9" s="5">
-        <f>Workings!$I$17</f>
+        <f>Workings!$I$16</f>
         <v/>
       </c>
       <c r="J9" s="5">
-        <f>Workings!$J$17</f>
+        <f>Workings!$J$16</f>
         <v/>
       </c>
       <c r="K9" s="5">
-        <f>Workings!$K$17</f>
+        <f>Workings!$K$16</f>
         <v/>
       </c>
       <c r="L9" s="5">
-        <f>Workings!$L$17</f>
+        <f>Workings!$L$16</f>
         <v/>
       </c>
       <c r="M9" s="5">
-        <f>Workings!$M$17</f>
+        <f>Workings!$M$16</f>
         <v/>
       </c>
     </row>
@@ -4956,51 +4846,51 @@
         </is>
       </c>
       <c r="B10" s="5">
-        <f>Workings!$B$25</f>
+        <f>Workings!$B$23</f>
         <v/>
       </c>
       <c r="C10" s="5">
-        <f>Workings!$C$25</f>
+        <f>Workings!$C$23</f>
         <v/>
       </c>
       <c r="D10" s="5">
-        <f>Workings!$D$25</f>
+        <f>Workings!$D$23</f>
         <v/>
       </c>
       <c r="E10" s="5">
-        <f>Workings!$E$25</f>
+        <f>Workings!$E$23</f>
         <v/>
       </c>
       <c r="F10" s="5">
-        <f>Workings!$F$25</f>
+        <f>Workings!$F$23</f>
         <v/>
       </c>
       <c r="G10" s="5">
-        <f>Workings!$G$25</f>
+        <f>Workings!$G$23</f>
         <v/>
       </c>
       <c r="H10" s="5">
-        <f>Workings!$H$25</f>
+        <f>Workings!$H$23</f>
         <v/>
       </c>
       <c r="I10" s="5">
-        <f>Workings!$I$25</f>
+        <f>Workings!$I$23</f>
         <v/>
       </c>
       <c r="J10" s="5">
-        <f>Workings!$J$25</f>
+        <f>Workings!$J$23</f>
         <v/>
       </c>
       <c r="K10" s="5">
-        <f>Workings!$K$25</f>
+        <f>Workings!$K$23</f>
         <v/>
       </c>
       <c r="L10" s="5">
-        <f>Workings!$L$25</f>
+        <f>Workings!$L$23</f>
         <v/>
       </c>
       <c r="M10" s="5">
-        <f>Workings!$M$25</f>
+        <f>Workings!$M$23</f>
         <v/>
       </c>
     </row>
@@ -5010,51 +4900,51 @@
           <t>Total Current Assets</t>
         </is>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <f>SUM(B7:B10)</f>
         <v/>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <f>SUM(C7:C10)</f>
         <v/>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <f>SUM(D7:D10)</f>
         <v/>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f>SUM(E7:E10)</f>
         <v/>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f>SUM(F7:F10)</f>
         <v/>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f>SUM(G7:G10)</f>
         <v/>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f>SUM(H7:H10)</f>
         <v/>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f>SUM(I7:I10)</f>
         <v/>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f>SUM(J7:J10)</f>
         <v/>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f>SUM(K7:K10)</f>
         <v/>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>SUM(L7:L10)</f>
         <v/>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <f>SUM(M7:M10)</f>
         <v/>
       </c>
@@ -5073,51 +4963,51 @@
         </is>
       </c>
       <c r="B14" s="5">
-        <f>Workings!$B$41</f>
+        <f>Workings!$B$39</f>
         <v/>
       </c>
       <c r="C14" s="5">
-        <f>Workings!$C$41</f>
+        <f>Workings!$C$39</f>
         <v/>
       </c>
       <c r="D14" s="5">
-        <f>Workings!$D$41</f>
+        <f>Workings!$D$39</f>
         <v/>
       </c>
       <c r="E14" s="5">
-        <f>Workings!$E$41</f>
+        <f>Workings!$E$39</f>
         <v/>
       </c>
       <c r="F14" s="5">
-        <f>Workings!$F$41</f>
+        <f>Workings!$F$39</f>
         <v/>
       </c>
       <c r="G14" s="5">
-        <f>Workings!$G$41</f>
+        <f>Workings!$G$39</f>
         <v/>
       </c>
       <c r="H14" s="5">
-        <f>Workings!$H$41</f>
+        <f>Workings!$H$39</f>
         <v/>
       </c>
       <c r="I14" s="5">
-        <f>Workings!$I$41</f>
+        <f>Workings!$I$39</f>
         <v/>
       </c>
       <c r="J14" s="5">
-        <f>Workings!$J$41</f>
+        <f>Workings!$J$39</f>
         <v/>
       </c>
       <c r="K14" s="5">
-        <f>Workings!$K$41</f>
+        <f>Workings!$K$39</f>
         <v/>
       </c>
       <c r="L14" s="5">
-        <f>Workings!$L$41</f>
+        <f>Workings!$L$39</f>
         <v/>
       </c>
       <c r="M14" s="5">
-        <f>Workings!$M$41</f>
+        <f>Workings!$M$39</f>
         <v/>
       </c>
     </row>
@@ -5127,51 +5017,51 @@
           <t>Total Non-Current Assets</t>
         </is>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <f>B14</f>
         <v/>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f>C14</f>
         <v/>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f>D14</f>
         <v/>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f>E14</f>
         <v/>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f>F14</f>
         <v/>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f>G14</f>
         <v/>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f>H14</f>
         <v/>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f>I14</f>
         <v/>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f>J14</f>
         <v/>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f>K14</f>
         <v/>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f>L14</f>
         <v/>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <f>M14</f>
         <v/>
       </c>
@@ -5182,57 +5072,57 @@
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="B17" s="14">
-        <f>B8+B15</f>
-        <v/>
-      </c>
-      <c r="C17" s="14">
-        <f>C8+C15</f>
-        <v/>
-      </c>
-      <c r="D17" s="14">
-        <f>D8+D15</f>
-        <v/>
-      </c>
-      <c r="E17" s="14">
-        <f>E8+E15</f>
-        <v/>
-      </c>
-      <c r="F17" s="14">
-        <f>F8+F15</f>
-        <v/>
-      </c>
-      <c r="G17" s="14">
-        <f>G8+G15</f>
-        <v/>
-      </c>
-      <c r="H17" s="14">
-        <f>H8+H15</f>
-        <v/>
-      </c>
-      <c r="I17" s="14">
-        <f>I8+I15</f>
-        <v/>
-      </c>
-      <c r="J17" s="14">
-        <f>J8+J15</f>
-        <v/>
-      </c>
-      <c r="K17" s="14">
-        <f>K8+K15</f>
-        <v/>
-      </c>
-      <c r="L17" s="14">
-        <f>L8+L15</f>
-        <v/>
-      </c>
-      <c r="M17" s="14">
-        <f>M8+M15</f>
+      <c r="B17" s="13">
+        <f>B11+B15</f>
+        <v/>
+      </c>
+      <c r="C17" s="13">
+        <f>C11+C15</f>
+        <v/>
+      </c>
+      <c r="D17" s="13">
+        <f>D11+D15</f>
+        <v/>
+      </c>
+      <c r="E17" s="13">
+        <f>E11+E15</f>
+        <v/>
+      </c>
+      <c r="F17" s="13">
+        <f>F11+F15</f>
+        <v/>
+      </c>
+      <c r="G17" s="13">
+        <f>G11+G15</f>
+        <v/>
+      </c>
+      <c r="H17" s="13">
+        <f>H11+H15</f>
+        <v/>
+      </c>
+      <c r="I17" s="13">
+        <f>I11+I15</f>
+        <v/>
+      </c>
+      <c r="J17" s="13">
+        <f>J11+J15</f>
+        <v/>
+      </c>
+      <c r="K17" s="13">
+        <f>K11+K15</f>
+        <v/>
+      </c>
+      <c r="L17" s="13">
+        <f>L11+L15</f>
+        <v/>
+      </c>
+      <c r="M17" s="13">
+        <f>M11+M15</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>LIABILITIES</t>
         </is>
@@ -5252,51 +5142,51 @@
         </is>
       </c>
       <c r="B22" s="5">
-        <f>Workings!$B$47</f>
+        <f>Workings!$B$46</f>
         <v/>
       </c>
       <c r="C22" s="5">
-        <f>Workings!$C$47</f>
+        <f>Workings!$C$46</f>
         <v/>
       </c>
       <c r="D22" s="5">
-        <f>Workings!$D$47</f>
+        <f>Workings!$D$46</f>
         <v/>
       </c>
       <c r="E22" s="5">
-        <f>Workings!$E$47</f>
+        <f>Workings!$E$46</f>
         <v/>
       </c>
       <c r="F22" s="5">
-        <f>Workings!$F$47</f>
+        <f>Workings!$F$46</f>
         <v/>
       </c>
       <c r="G22" s="5">
-        <f>Workings!$G$47</f>
+        <f>Workings!$G$46</f>
         <v/>
       </c>
       <c r="H22" s="5">
-        <f>Workings!$H$47</f>
+        <f>Workings!$H$46</f>
         <v/>
       </c>
       <c r="I22" s="5">
-        <f>Workings!$I$47</f>
+        <f>Workings!$I$46</f>
         <v/>
       </c>
       <c r="J22" s="5">
-        <f>Workings!$J$47</f>
+        <f>Workings!$J$46</f>
         <v/>
       </c>
       <c r="K22" s="5">
-        <f>Workings!$K$47</f>
+        <f>Workings!$K$46</f>
         <v/>
       </c>
       <c r="L22" s="5">
-        <f>Workings!$L$47</f>
+        <f>Workings!$L$46</f>
         <v/>
       </c>
       <c r="M22" s="5">
-        <f>Workings!$M$47</f>
+        <f>Workings!$M$46</f>
         <v/>
       </c>
     </row>
@@ -5362,51 +5252,51 @@
         </is>
       </c>
       <c r="B24" s="5">
-        <f>Workings!$B$59</f>
+        <f>Workings!$B$60</f>
         <v/>
       </c>
       <c r="C24" s="5">
-        <f>Workings!$C$59</f>
+        <f>Workings!$C$60</f>
         <v/>
       </c>
       <c r="D24" s="5">
-        <f>Workings!$D$59</f>
+        <f>Workings!$D$60</f>
         <v/>
       </c>
       <c r="E24" s="5">
-        <f>Workings!$E$59</f>
+        <f>Workings!$E$60</f>
         <v/>
       </c>
       <c r="F24" s="5">
-        <f>Workings!$F$59</f>
+        <f>Workings!$F$60</f>
         <v/>
       </c>
       <c r="G24" s="5">
-        <f>Workings!$G$59</f>
+        <f>Workings!$G$60</f>
         <v/>
       </c>
       <c r="H24" s="5">
-        <f>Workings!$H$59</f>
+        <f>Workings!$H$60</f>
         <v/>
       </c>
       <c r="I24" s="5">
-        <f>Workings!$I$59</f>
+        <f>Workings!$I$60</f>
         <v/>
       </c>
       <c r="J24" s="5">
-        <f>Workings!$J$59</f>
+        <f>Workings!$J$60</f>
         <v/>
       </c>
       <c r="K24" s="5">
-        <f>Workings!$K$59</f>
+        <f>Workings!$K$60</f>
         <v/>
       </c>
       <c r="L24" s="5">
-        <f>Workings!$L$59</f>
+        <f>Workings!$L$60</f>
         <v/>
       </c>
       <c r="M24" s="5">
-        <f>Workings!$M$59</f>
+        <f>Workings!$M$60</f>
         <v/>
       </c>
     </row>
@@ -5416,51 +5306,51 @@
           <t>Total Current Liabilities</t>
         </is>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <f>SUM(B22:B24)</f>
         <v/>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <f>SUM(C22:C24)</f>
         <v/>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <f>SUM(D22:D24)</f>
         <v/>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <f>SUM(E22:E24)</f>
         <v/>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <f>SUM(F22:F24)</f>
         <v/>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <f>SUM(G22:G24)</f>
         <v/>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f>SUM(H22:H24)</f>
         <v/>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f>SUM(I22:I24)</f>
         <v/>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f>SUM(J22:J24)</f>
         <v/>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <f>SUM(K22:K24)</f>
         <v/>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <f>SUM(L22:L24)</f>
         <v/>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
         <f>SUM(M22:M24)</f>
         <v/>
       </c>
@@ -5479,51 +5369,51 @@
         </is>
       </c>
       <c r="B28" s="5">
-        <f>Workings!$B$65</f>
+        <f>Workings!$B$67</f>
         <v/>
       </c>
       <c r="C28" s="5">
-        <f>Workings!$C$65</f>
+        <f>Workings!$C$67</f>
         <v/>
       </c>
       <c r="D28" s="5">
-        <f>Workings!$D$65</f>
+        <f>Workings!$D$67</f>
         <v/>
       </c>
       <c r="E28" s="5">
-        <f>Workings!$E$65</f>
+        <f>Workings!$E$67</f>
         <v/>
       </c>
       <c r="F28" s="5">
-        <f>Workings!$F$65</f>
+        <f>Workings!$F$67</f>
         <v/>
       </c>
       <c r="G28" s="5">
-        <f>Workings!$G$65</f>
+        <f>Workings!$G$67</f>
         <v/>
       </c>
       <c r="H28" s="5">
-        <f>Workings!$H$65</f>
+        <f>Workings!$H$67</f>
         <v/>
       </c>
       <c r="I28" s="5">
-        <f>Workings!$I$65</f>
+        <f>Workings!$I$67</f>
         <v/>
       </c>
       <c r="J28" s="5">
-        <f>Workings!$J$65</f>
+        <f>Workings!$J$67</f>
         <v/>
       </c>
       <c r="K28" s="5">
-        <f>Workings!$K$65</f>
+        <f>Workings!$K$67</f>
         <v/>
       </c>
       <c r="L28" s="5">
-        <f>Workings!$L$65</f>
+        <f>Workings!$L$67</f>
         <v/>
       </c>
       <c r="M28" s="5">
-        <f>Workings!$M$65</f>
+        <f>Workings!$M$67</f>
         <v/>
       </c>
     </row>
@@ -5533,51 +5423,51 @@
           <t>Total Non-Current Liabilities</t>
         </is>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <f>B28</f>
         <v/>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <f>C28</f>
         <v/>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <f>D28</f>
         <v/>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <f>E28</f>
         <v/>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <f>F28</f>
         <v/>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <f>G28</f>
         <v/>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>H28</f>
         <v/>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <f>I28</f>
         <v/>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <f>J28</f>
         <v/>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <f>K28</f>
         <v/>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <f>L28</f>
         <v/>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <f>M28</f>
         <v/>
       </c>
@@ -5588,57 +5478,57 @@
           <t>TOTAL LIABILITIES</t>
         </is>
       </c>
-      <c r="B31" s="17">
-        <f>B22+B29</f>
-        <v/>
-      </c>
-      <c r="C31" s="17">
-        <f>C22+C29</f>
-        <v/>
-      </c>
-      <c r="D31" s="17">
-        <f>D22+D29</f>
-        <v/>
-      </c>
-      <c r="E31" s="17">
-        <f>E22+E29</f>
-        <v/>
-      </c>
-      <c r="F31" s="17">
-        <f>F22+F29</f>
-        <v/>
-      </c>
-      <c r="G31" s="17">
-        <f>G22+G29</f>
-        <v/>
-      </c>
-      <c r="H31" s="17">
-        <f>H22+H29</f>
-        <v/>
-      </c>
-      <c r="I31" s="17">
-        <f>I22+I29</f>
-        <v/>
-      </c>
-      <c r="J31" s="17">
-        <f>J22+J29</f>
-        <v/>
-      </c>
-      <c r="K31" s="17">
-        <f>K22+K29</f>
-        <v/>
-      </c>
-      <c r="L31" s="17">
-        <f>L22+L29</f>
-        <v/>
-      </c>
-      <c r="M31" s="17">
-        <f>M22+M29</f>
+      <c r="B31" s="16">
+        <f>B25+B29</f>
+        <v/>
+      </c>
+      <c r="C31" s="16">
+        <f>C25+C29</f>
+        <v/>
+      </c>
+      <c r="D31" s="16">
+        <f>D25+D29</f>
+        <v/>
+      </c>
+      <c r="E31" s="16">
+        <f>E25+E29</f>
+        <v/>
+      </c>
+      <c r="F31" s="16">
+        <f>F25+F29</f>
+        <v/>
+      </c>
+      <c r="G31" s="16">
+        <f>G25+G29</f>
+        <v/>
+      </c>
+      <c r="H31" s="16">
+        <f>H25+H29</f>
+        <v/>
+      </c>
+      <c r="I31" s="16">
+        <f>I25+I29</f>
+        <v/>
+      </c>
+      <c r="J31" s="16">
+        <f>J25+J29</f>
+        <v/>
+      </c>
+      <c r="K31" s="16">
+        <f>K25+K29</f>
+        <v/>
+      </c>
+      <c r="L31" s="16">
+        <f>L25+L29</f>
+        <v/>
+      </c>
+      <c r="M31" s="16">
+        <f>M25+M29</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="18" t="inlineStr">
+      <c r="A34" s="17" t="inlineStr">
         <is>
           <t>EQUITY</t>
         </is>
@@ -5706,51 +5596,51 @@
         </is>
       </c>
       <c r="B36" s="5">
-        <f>Inputs!$B$52+'Income Statement'!$B$25</f>
+        <f>Inputs!$B$52+'Income Statement'!$B$23</f>
         <v/>
       </c>
       <c r="C36" s="5">
-        <f>B36+'Income Statement'!$C$25</f>
+        <f>B36+'Income Statement'!$C$23</f>
         <v/>
       </c>
       <c r="D36" s="5">
-        <f>C36+'Income Statement'!$D$25</f>
+        <f>C36+'Income Statement'!$D$23</f>
         <v/>
       </c>
       <c r="E36" s="5">
-        <f>D36+'Income Statement'!$E$25</f>
+        <f>D36+'Income Statement'!$E$23</f>
         <v/>
       </c>
       <c r="F36" s="5">
-        <f>E36+'Income Statement'!$F$25</f>
+        <f>E36+'Income Statement'!$F$23</f>
         <v/>
       </c>
       <c r="G36" s="5">
-        <f>F36+'Income Statement'!$G$25</f>
+        <f>F36+'Income Statement'!$G$23</f>
         <v/>
       </c>
       <c r="H36" s="5">
-        <f>G36+'Income Statement'!$H$25</f>
+        <f>G36+'Income Statement'!$H$23</f>
         <v/>
       </c>
       <c r="I36" s="5">
-        <f>H36+'Income Statement'!$I$25</f>
+        <f>H36+'Income Statement'!$I$23</f>
         <v/>
       </c>
       <c r="J36" s="5">
-        <f>I36+'Income Statement'!$J$25</f>
+        <f>I36+'Income Statement'!$J$23</f>
         <v/>
       </c>
       <c r="K36" s="5">
-        <f>J36+'Income Statement'!$K$25</f>
+        <f>J36+'Income Statement'!$K$23</f>
         <v/>
       </c>
       <c r="L36" s="5">
-        <f>K36+'Income Statement'!$L$25</f>
+        <f>K36+'Income Statement'!$L$23</f>
         <v/>
       </c>
       <c r="M36" s="5">
-        <f>L36+'Income Statement'!$M$25</f>
+        <f>L36+'Income Statement'!$M$23</f>
         <v/>
       </c>
     </row>
@@ -5760,51 +5650,51 @@
           <t>TOTAL EQUITY</t>
         </is>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <f>B35+B36</f>
         <v/>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <f>C35+C36</f>
         <v/>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <f>D35+D36</f>
         <v/>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f>E35+E36</f>
         <v/>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f>F35+F36</f>
         <v/>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f>G35+G36</f>
         <v/>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <f>H35+H36</f>
         <v/>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <f>I35+I36</f>
         <v/>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="10">
         <f>J35+J36</f>
         <v/>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f>K35+K36</f>
         <v/>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <f>L35+L36</f>
         <v/>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="10">
         <f>M35+M36</f>
         <v/>
       </c>
@@ -5815,52 +5705,52 @@
           <t>TOTAL LIABILITIES + EQUITY</t>
         </is>
       </c>
-      <c r="B39" s="14">
-        <f>B24+B36</f>
-        <v/>
-      </c>
-      <c r="C39" s="14">
-        <f>C24+C36</f>
-        <v/>
-      </c>
-      <c r="D39" s="14">
-        <f>D24+D36</f>
-        <v/>
-      </c>
-      <c r="E39" s="14">
-        <f>E24+E36</f>
-        <v/>
-      </c>
-      <c r="F39" s="14">
-        <f>F24+F36</f>
-        <v/>
-      </c>
-      <c r="G39" s="14">
-        <f>G24+G36</f>
-        <v/>
-      </c>
-      <c r="H39" s="14">
-        <f>H24+H36</f>
-        <v/>
-      </c>
-      <c r="I39" s="14">
-        <f>I24+I36</f>
-        <v/>
-      </c>
-      <c r="J39" s="14">
-        <f>J24+J36</f>
-        <v/>
-      </c>
-      <c r="K39" s="14">
-        <f>K24+K36</f>
-        <v/>
-      </c>
-      <c r="L39" s="14">
-        <f>L24+L36</f>
-        <v/>
-      </c>
-      <c r="M39" s="14">
-        <f>M24+M36</f>
+      <c r="B39" s="13">
+        <f>B31+B37</f>
+        <v/>
+      </c>
+      <c r="C39" s="13">
+        <f>C31+C37</f>
+        <v/>
+      </c>
+      <c r="D39" s="13">
+        <f>D31+D37</f>
+        <v/>
+      </c>
+      <c r="E39" s="13">
+        <f>E31+E37</f>
+        <v/>
+      </c>
+      <c r="F39" s="13">
+        <f>F31+F37</f>
+        <v/>
+      </c>
+      <c r="G39" s="13">
+        <f>G31+G37</f>
+        <v/>
+      </c>
+      <c r="H39" s="13">
+        <f>H31+H37</f>
+        <v/>
+      </c>
+      <c r="I39" s="13">
+        <f>I31+I37</f>
+        <v/>
+      </c>
+      <c r="J39" s="13">
+        <f>J31+J37</f>
+        <v/>
+      </c>
+      <c r="K39" s="13">
+        <f>K31+K37</f>
+        <v/>
+      </c>
+      <c r="L39" s="13">
+        <f>L31+L37</f>
+        <v/>
+      </c>
+      <c r="M39" s="13">
+        <f>M31+M37</f>
         <v/>
       </c>
     </row>
@@ -5870,52 +5760,52 @@
           <t>BALANCE CHECK (should be 0)</t>
         </is>
       </c>
-      <c r="B41" s="19">
-        <f>B24-B39</f>
-        <v/>
-      </c>
-      <c r="C41" s="19">
-        <f>C24-C39</f>
-        <v/>
-      </c>
-      <c r="D41" s="19">
-        <f>D24-D39</f>
-        <v/>
-      </c>
-      <c r="E41" s="19">
-        <f>E24-E39</f>
-        <v/>
-      </c>
-      <c r="F41" s="19">
-        <f>F24-F39</f>
-        <v/>
-      </c>
-      <c r="G41" s="19">
-        <f>G24-G39</f>
-        <v/>
-      </c>
-      <c r="H41" s="19">
-        <f>H24-H39</f>
-        <v/>
-      </c>
-      <c r="I41" s="19">
-        <f>I24-I39</f>
-        <v/>
-      </c>
-      <c r="J41" s="19">
-        <f>J24-J39</f>
-        <v/>
-      </c>
-      <c r="K41" s="19">
-        <f>K24-K39</f>
-        <v/>
-      </c>
-      <c r="L41" s="19">
-        <f>L24-L39</f>
-        <v/>
-      </c>
-      <c r="M41" s="19">
-        <f>M24-M39</f>
+      <c r="B41" s="18">
+        <f>B17-B39</f>
+        <v/>
+      </c>
+      <c r="C41" s="18">
+        <f>C17-C39</f>
+        <v/>
+      </c>
+      <c r="D41" s="18">
+        <f>D17-D39</f>
+        <v/>
+      </c>
+      <c r="E41" s="18">
+        <f>E17-E39</f>
+        <v/>
+      </c>
+      <c r="F41" s="18">
+        <f>F17-F39</f>
+        <v/>
+      </c>
+      <c r="G41" s="18">
+        <f>G17-G39</f>
+        <v/>
+      </c>
+      <c r="H41" s="18">
+        <f>H17-H39</f>
+        <v/>
+      </c>
+      <c r="I41" s="18">
+        <f>I17-I39</f>
+        <v/>
+      </c>
+      <c r="J41" s="18">
+        <f>J17-J39</f>
+        <v/>
+      </c>
+      <c r="K41" s="18">
+        <f>K17-K39</f>
+        <v/>
+      </c>
+      <c r="L41" s="18">
+        <f>L17-L39</f>
+        <v/>
+      </c>
+      <c r="M41" s="18">
+        <f>M17-M39</f>
         <v/>
       </c>
     </row>
@@ -6028,7 +5918,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>OPERATING ACTIVITIES</t>
         </is>
@@ -6041,51 +5931,51 @@
         </is>
       </c>
       <c r="B6" s="5">
-        <f>'Income Statement'!$B$25</f>
+        <f>'Income Statement'!$B$23</f>
         <v/>
       </c>
       <c r="C6" s="5">
-        <f>'Income Statement'!$C$25</f>
+        <f>'Income Statement'!$C$23</f>
         <v/>
       </c>
       <c r="D6" s="5">
-        <f>'Income Statement'!$D$25</f>
+        <f>'Income Statement'!$D$23</f>
         <v/>
       </c>
       <c r="E6" s="5">
-        <f>'Income Statement'!$E$25</f>
+        <f>'Income Statement'!$E$23</f>
         <v/>
       </c>
       <c r="F6" s="5">
-        <f>'Income Statement'!$F$25</f>
+        <f>'Income Statement'!$F$23</f>
         <v/>
       </c>
       <c r="G6" s="5">
-        <f>'Income Statement'!$G$25</f>
+        <f>'Income Statement'!$G$23</f>
         <v/>
       </c>
       <c r="H6" s="5">
-        <f>'Income Statement'!$H$25</f>
+        <f>'Income Statement'!$H$23</f>
         <v/>
       </c>
       <c r="I6" s="5">
-        <f>'Income Statement'!$I$25</f>
+        <f>'Income Statement'!$I$23</f>
         <v/>
       </c>
       <c r="J6" s="5">
-        <f>'Income Statement'!$J$25</f>
+        <f>'Income Statement'!$J$23</f>
         <v/>
       </c>
       <c r="K6" s="5">
-        <f>'Income Statement'!$K$25</f>
+        <f>'Income Statement'!$K$23</f>
         <v/>
       </c>
       <c r="L6" s="5">
-        <f>'Income Statement'!$L$25</f>
+        <f>'Income Statement'!$L$23</f>
         <v/>
       </c>
       <c r="M6" s="5">
-        <f>'Income Statement'!$M$25</f>
+        <f>'Income Statement'!$M$23</f>
         <v/>
       </c>
     </row>
@@ -6096,56 +5986,56 @@
         </is>
       </c>
       <c r="B7" s="5">
-        <f>Workings!$B$37</f>
+        <f>Workings!$B$35</f>
         <v/>
       </c>
       <c r="C7" s="5">
-        <f>Workings!$C$37</f>
+        <f>Workings!$C$35</f>
         <v/>
       </c>
       <c r="D7" s="5">
-        <f>Workings!$D$37</f>
+        <f>Workings!$D$35</f>
         <v/>
       </c>
       <c r="E7" s="5">
-        <f>Workings!$E$37</f>
+        <f>Workings!$E$35</f>
         <v/>
       </c>
       <c r="F7" s="5">
-        <f>Workings!$F$37</f>
+        <f>Workings!$F$35</f>
         <v/>
       </c>
       <c r="G7" s="5">
-        <f>Workings!$G$37</f>
+        <f>Workings!$G$35</f>
         <v/>
       </c>
       <c r="H7" s="5">
-        <f>Workings!$H$37</f>
+        <f>Workings!$H$35</f>
         <v/>
       </c>
       <c r="I7" s="5">
-        <f>Workings!$I$37</f>
+        <f>Workings!$I$35</f>
         <v/>
       </c>
       <c r="J7" s="5">
-        <f>Workings!$J$37</f>
+        <f>Workings!$J$35</f>
         <v/>
       </c>
       <c r="K7" s="5">
-        <f>Workings!$K$37</f>
+        <f>Workings!$K$35</f>
         <v/>
       </c>
       <c r="L7" s="5">
-        <f>Workings!$L$37</f>
+        <f>Workings!$L$35</f>
         <v/>
       </c>
       <c r="M7" s="5">
-        <f>Workings!$M$37</f>
+        <f>Workings!$M$35</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="inlineStr">
+      <c r="A8" s="19" t="inlineStr">
         <is>
           <t>Changes in Working Capital:</t>
         </is>
@@ -6213,51 +6103,51 @@
         </is>
       </c>
       <c r="B10" s="5">
-        <f>Inputs!$B$43-Workings!$B$17</f>
+        <f>Inputs!$B$43-Workings!$B$16</f>
         <v/>
       </c>
       <c r="C10" s="5">
-        <f>Workings!$B$17-Workings!$C$17</f>
+        <f>Workings!$B$16-Workings!$C$16</f>
         <v/>
       </c>
       <c r="D10" s="5">
-        <f>Workings!$C$17-Workings!$D$17</f>
+        <f>Workings!$C$16-Workings!$D$16</f>
         <v/>
       </c>
       <c r="E10" s="5">
-        <f>Workings!$D$17-Workings!$E$17</f>
+        <f>Workings!$D$16-Workings!$E$16</f>
         <v/>
       </c>
       <c r="F10" s="5">
-        <f>Workings!$E$17-Workings!$F$17</f>
+        <f>Workings!$E$16-Workings!$F$16</f>
         <v/>
       </c>
       <c r="G10" s="5">
-        <f>Workings!$F$17-Workings!$G$17</f>
+        <f>Workings!$F$16-Workings!$G$16</f>
         <v/>
       </c>
       <c r="H10" s="5">
-        <f>Workings!$G$17-Workings!$H$17</f>
+        <f>Workings!$G$16-Workings!$H$16</f>
         <v/>
       </c>
       <c r="I10" s="5">
-        <f>Workings!$H$17-Workings!$I$17</f>
+        <f>Workings!$H$16-Workings!$I$16</f>
         <v/>
       </c>
       <c r="J10" s="5">
-        <f>Workings!$I$17-Workings!$J$17</f>
+        <f>Workings!$I$16-Workings!$J$16</f>
         <v/>
       </c>
       <c r="K10" s="5">
-        <f>Workings!$J$17-Workings!$K$17</f>
+        <f>Workings!$J$16-Workings!$K$16</f>
         <v/>
       </c>
       <c r="L10" s="5">
-        <f>Workings!$K$17-Workings!$L$17</f>
+        <f>Workings!$K$16-Workings!$L$16</f>
         <v/>
       </c>
       <c r="M10" s="5">
-        <f>Workings!$L$17-Workings!$M$17</f>
+        <f>Workings!$L$16-Workings!$M$16</f>
         <v/>
       </c>
     </row>
@@ -6268,51 +6158,51 @@
         </is>
       </c>
       <c r="B11" s="5">
-        <f>Inputs!$B$44-Workings!$B$25</f>
+        <f>Inputs!$B$44-Workings!$B$23</f>
         <v/>
       </c>
       <c r="C11" s="5">
-        <f>Workings!$B$25-Workings!$C$25</f>
+        <f>Workings!$B$23-Workings!$C$23</f>
         <v/>
       </c>
       <c r="D11" s="5">
-        <f>Workings!$C$25-Workings!$D$25</f>
+        <f>Workings!$C$23-Workings!$D$23</f>
         <v/>
       </c>
       <c r="E11" s="5">
-        <f>Workings!$D$25-Workings!$E$25</f>
+        <f>Workings!$D$23-Workings!$E$23</f>
         <v/>
       </c>
       <c r="F11" s="5">
-        <f>Workings!$E$25-Workings!$F$25</f>
+        <f>Workings!$E$23-Workings!$F$23</f>
         <v/>
       </c>
       <c r="G11" s="5">
-        <f>Workings!$F$25-Workings!$G$25</f>
+        <f>Workings!$F$23-Workings!$G$23</f>
         <v/>
       </c>
       <c r="H11" s="5">
-        <f>Workings!$G$25-Workings!$H$25</f>
+        <f>Workings!$G$23-Workings!$H$23</f>
         <v/>
       </c>
       <c r="I11" s="5">
-        <f>Workings!$H$25-Workings!$I$25</f>
+        <f>Workings!$H$23-Workings!$I$23</f>
         <v/>
       </c>
       <c r="J11" s="5">
-        <f>Workings!$I$25-Workings!$J$25</f>
+        <f>Workings!$I$23-Workings!$J$23</f>
         <v/>
       </c>
       <c r="K11" s="5">
-        <f>Workings!$J$25-Workings!$K$25</f>
+        <f>Workings!$J$23-Workings!$K$23</f>
         <v/>
       </c>
       <c r="L11" s="5">
-        <f>Workings!$K$25-Workings!$L$25</f>
+        <f>Workings!$K$23-Workings!$L$23</f>
         <v/>
       </c>
       <c r="M11" s="5">
-        <f>Workings!$L$25-Workings!$M$25</f>
+        <f>Workings!$L$23-Workings!$M$23</f>
         <v/>
       </c>
     </row>
@@ -6323,51 +6213,51 @@
         </is>
       </c>
       <c r="B12" s="5">
-        <f>Workings!$B$47-Inputs!$B$47</f>
+        <f>Workings!$B$46-Inputs!$B$47</f>
         <v/>
       </c>
       <c r="C12" s="5">
-        <f>Workings!$C$47-Workings!$B$47</f>
+        <f>Workings!$C$46-Workings!$B$46</f>
         <v/>
       </c>
       <c r="D12" s="5">
-        <f>Workings!$D$47-Workings!$C$47</f>
+        <f>Workings!$D$46-Workings!$C$46</f>
         <v/>
       </c>
       <c r="E12" s="5">
-        <f>Workings!$E$47-Workings!$D$47</f>
+        <f>Workings!$E$46-Workings!$D$46</f>
         <v/>
       </c>
       <c r="F12" s="5">
-        <f>Workings!$F$47-Workings!$E$47</f>
+        <f>Workings!$F$46-Workings!$E$46</f>
         <v/>
       </c>
       <c r="G12" s="5">
-        <f>Workings!$G$47-Workings!$F$47</f>
+        <f>Workings!$G$46-Workings!$F$46</f>
         <v/>
       </c>
       <c r="H12" s="5">
-        <f>Workings!$H$47-Workings!$G$47</f>
+        <f>Workings!$H$46-Workings!$G$46</f>
         <v/>
       </c>
       <c r="I12" s="5">
-        <f>Workings!$I$47-Workings!$H$47</f>
+        <f>Workings!$I$46-Workings!$H$46</f>
         <v/>
       </c>
       <c r="J12" s="5">
-        <f>Workings!$J$47-Workings!$I$47</f>
+        <f>Workings!$J$46-Workings!$I$46</f>
         <v/>
       </c>
       <c r="K12" s="5">
-        <f>Workings!$K$47-Workings!$J$47</f>
+        <f>Workings!$K$46-Workings!$J$46</f>
         <v/>
       </c>
       <c r="L12" s="5">
-        <f>Workings!$L$47-Workings!$K$47</f>
+        <f>Workings!$L$46-Workings!$K$46</f>
         <v/>
       </c>
       <c r="M12" s="5">
-        <f>Workings!$M$47-Workings!$L$47</f>
+        <f>Workings!$M$46-Workings!$L$46</f>
         <v/>
       </c>
     </row>
@@ -6433,51 +6323,51 @@
         </is>
       </c>
       <c r="B14" s="5">
-        <f>Workings!$B$59-Inputs!$B$49</f>
+        <f>Workings!$B$60-Inputs!$B$49</f>
         <v/>
       </c>
       <c r="C14" s="5">
-        <f>Workings!$C$59-Workings!$B$59</f>
+        <f>Workings!$C$60-Workings!$B$60</f>
         <v/>
       </c>
       <c r="D14" s="5">
-        <f>Workings!$D$59-Workings!$C$59</f>
+        <f>Workings!$D$60-Workings!$C$60</f>
         <v/>
       </c>
       <c r="E14" s="5">
-        <f>Workings!$E$59-Workings!$D$59</f>
+        <f>Workings!$E$60-Workings!$D$60</f>
         <v/>
       </c>
       <c r="F14" s="5">
-        <f>Workings!$F$59-Workings!$E$59</f>
+        <f>Workings!$F$60-Workings!$E$60</f>
         <v/>
       </c>
       <c r="G14" s="5">
-        <f>Workings!$G$59-Workings!$F$59</f>
+        <f>Workings!$G$60-Workings!$F$60</f>
         <v/>
       </c>
       <c r="H14" s="5">
-        <f>Workings!$H$59-Workings!$G$59</f>
+        <f>Workings!$H$60-Workings!$G$60</f>
         <v/>
       </c>
       <c r="I14" s="5">
-        <f>Workings!$I$59-Workings!$H$59</f>
+        <f>Workings!$I$60-Workings!$H$60</f>
         <v/>
       </c>
       <c r="J14" s="5">
-        <f>Workings!$J$59-Workings!$I$59</f>
+        <f>Workings!$J$60-Workings!$I$60</f>
         <v/>
       </c>
       <c r="K14" s="5">
-        <f>Workings!$K$59-Workings!$J$59</f>
+        <f>Workings!$K$60-Workings!$J$60</f>
         <v/>
       </c>
       <c r="L14" s="5">
-        <f>Workings!$L$59-Workings!$K$59</f>
+        <f>Workings!$L$60-Workings!$K$60</f>
         <v/>
       </c>
       <c r="M14" s="5">
-        <f>Workings!$M$59-Workings!$L$59</f>
+        <f>Workings!$M$60-Workings!$L$60</f>
         <v/>
       </c>
     </row>
@@ -6487,57 +6377,57 @@
           <t>Cash from Operating Activities</t>
         </is>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f>SUM(B6:B14)</f>
         <v/>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <f>SUM(C6:C14)</f>
         <v/>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f>SUM(D6:D14)</f>
         <v/>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f>SUM(E6:E14)</f>
         <v/>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>SUM(F6:F14)</f>
         <v/>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>SUM(G6:G14)</f>
         <v/>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <f>SUM(H6:H14)</f>
         <v/>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f>SUM(I6:I14)</f>
         <v/>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <f>SUM(J6:J14)</f>
         <v/>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <f>SUM(K6:K14)</f>
         <v/>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <f>SUM(L6:L14)</f>
         <v/>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <f>SUM(M6:M14)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="inlineStr">
+      <c r="A17" s="20" t="inlineStr">
         <is>
           <t>INVESTING ACTIVITIES</t>
         </is>
@@ -6647,57 +6537,57 @@
           <t>Cash from Investing Activities</t>
         </is>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <f>SUM(B18:B19)</f>
         <v/>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <f>SUM(C18:C19)</f>
         <v/>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f>SUM(D18:D19)</f>
         <v/>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f>SUM(E18:E19)</f>
         <v/>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>SUM(F18:F19)</f>
         <v/>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>SUM(G18:G19)</f>
         <v/>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <f>SUM(H18:H19)</f>
         <v/>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <f>SUM(I18:I19)</f>
         <v/>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <f>SUM(J18:J19)</f>
         <v/>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <f>SUM(K18:K19)</f>
         <v/>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <f>SUM(L18:L19)</f>
         <v/>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <f>SUM(M18:M19)</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>FINANCING ACTIVITIES</t>
         </is>
@@ -6820,51 +6710,51 @@
         </is>
       </c>
       <c r="B25" s="5">
-        <f>-Workings!$B$60</f>
+        <f>-Workings!$B$69</f>
         <v/>
       </c>
       <c r="C25" s="5">
-        <f>-Workings!$C$60</f>
+        <f>-Workings!$C$69</f>
         <v/>
       </c>
       <c r="D25" s="5">
-        <f>-Workings!$D$60</f>
+        <f>-Workings!$D$69</f>
         <v/>
       </c>
       <c r="E25" s="5">
-        <f>-Workings!$E$60</f>
+        <f>-Workings!$E$69</f>
         <v/>
       </c>
       <c r="F25" s="5">
-        <f>-Workings!$F$60</f>
+        <f>-Workings!$F$69</f>
         <v/>
       </c>
       <c r="G25" s="5">
-        <f>-Workings!$G$60</f>
+        <f>-Workings!$G$69</f>
         <v/>
       </c>
       <c r="H25" s="5">
-        <f>-Workings!$H$60</f>
+        <f>-Workings!$H$69</f>
         <v/>
       </c>
       <c r="I25" s="5">
-        <f>-Workings!$I$60</f>
+        <f>-Workings!$I$69</f>
         <v/>
       </c>
       <c r="J25" s="5">
-        <f>-Workings!$J$60</f>
+        <f>-Workings!$J$69</f>
         <v/>
       </c>
       <c r="K25" s="5">
-        <f>-Workings!$K$60</f>
+        <f>-Workings!$K$69</f>
         <v/>
       </c>
       <c r="L25" s="5">
-        <f>-Workings!$L$60</f>
+        <f>-Workings!$L$69</f>
         <v/>
       </c>
       <c r="M25" s="5">
-        <f>-Workings!$M$60</f>
+        <f>-Workings!$M$69</f>
         <v/>
       </c>
     </row>
@@ -6960,51 +6850,51 @@
           <t>Cash from Financing Activities</t>
         </is>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <f>SUM(B23:B27)</f>
         <v/>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <f>SUM(C23:C27)</f>
         <v/>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <f>SUM(D23:D27)</f>
         <v/>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <f>SUM(E23:E27)</f>
         <v/>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>SUM(F23:F27)</f>
         <v/>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>SUM(G23:G27)</f>
         <v/>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <f>SUM(H23:H27)</f>
         <v/>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <f>SUM(I23:I27)</f>
         <v/>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <f>SUM(J23:J27)</f>
         <v/>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <f>SUM(K23:K27)</f>
         <v/>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <f>SUM(L23:L27)</f>
         <v/>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <f>SUM(M23:M27)</f>
         <v/>
       </c>
@@ -7070,52 +6960,52 @@
           <t>Net Change in Cash</t>
         </is>
       </c>
-      <c r="B31" s="10">
-        <f>B15+B22+B29</f>
-        <v/>
-      </c>
-      <c r="C31" s="10">
-        <f>C15+C22+C29</f>
-        <v/>
-      </c>
-      <c r="D31" s="10">
-        <f>D15+D22+D29</f>
-        <v/>
-      </c>
-      <c r="E31" s="10">
-        <f>E15+E22+E29</f>
-        <v/>
-      </c>
-      <c r="F31" s="10">
-        <f>F15+F22+F29</f>
-        <v/>
-      </c>
-      <c r="G31" s="10">
-        <f>G15+G22+G29</f>
-        <v/>
-      </c>
-      <c r="H31" s="10">
-        <f>H15+H22+H29</f>
-        <v/>
-      </c>
-      <c r="I31" s="10">
-        <f>I15+I22+I29</f>
-        <v/>
-      </c>
-      <c r="J31" s="10">
-        <f>J15+J22+J29</f>
-        <v/>
-      </c>
-      <c r="K31" s="10">
-        <f>K15+K22+K29</f>
-        <v/>
-      </c>
-      <c r="L31" s="10">
-        <f>L15+L22+L29</f>
-        <v/>
-      </c>
-      <c r="M31" s="10">
-        <f>M15+M22+M29</f>
+      <c r="B31" s="9">
+        <f>B15+B20+B28</f>
+        <v/>
+      </c>
+      <c r="C31" s="9">
+        <f>C15+C20+C28</f>
+        <v/>
+      </c>
+      <c r="D31" s="9">
+        <f>D15+D20+D28</f>
+        <v/>
+      </c>
+      <c r="E31" s="9">
+        <f>E15+E20+E28</f>
+        <v/>
+      </c>
+      <c r="F31" s="9">
+        <f>F15+F20+F28</f>
+        <v/>
+      </c>
+      <c r="G31" s="9">
+        <f>G15+G20+G28</f>
+        <v/>
+      </c>
+      <c r="H31" s="9">
+        <f>H15+H20+H28</f>
+        <v/>
+      </c>
+      <c r="I31" s="9">
+        <f>I15+I20+I28</f>
+        <v/>
+      </c>
+      <c r="J31" s="9">
+        <f>J15+J20+J28</f>
+        <v/>
+      </c>
+      <c r="K31" s="9">
+        <f>K15+K20+K28</f>
+        <v/>
+      </c>
+      <c r="L31" s="9">
+        <f>L15+L20+L28</f>
+        <v/>
+      </c>
+      <c r="M31" s="9">
+        <f>M15+M20+M28</f>
         <v/>
       </c>
     </row>
@@ -7125,51 +7015,51 @@
           <t>Closing Cash</t>
         </is>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <f>B30+B31</f>
         <v/>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <f>C30+C31</f>
         <v/>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <f>D30+D31</f>
         <v/>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <f>E30+E31</f>
         <v/>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <f>F30+F31</f>
         <v/>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <f>G30+G31</f>
         <v/>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <f>H30+H31</f>
         <v/>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <f>I30+I31</f>
         <v/>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <f>J30+J31</f>
         <v/>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <f>K30+K31</f>
         <v/>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <f>L30+L31</f>
         <v/>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="13">
         <f>M30+M31</f>
         <v/>
       </c>
